--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="DieseArbeitsmappe" showPivotChartFilter="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C28135D-40E3-1149-BA57-BF4930EFDBB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5365DD25-2769-0D46-9C2D-A7DCEF3F8336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,7 +1202,7 @@
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1566,6 +1566,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1718,15 +1726,15 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1743,11 +1751,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1833,19 +1841,19 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,8 +2425,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="134" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2906,40 +2914,40 @@
       <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="115" t="s">
+      <c r="AD8" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" s="116" t="s">
+      <c r="AE8" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="116" t="s">
+      <c r="AF8" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="116" t="s">
+      <c r="AG8" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AH8" s="117" t="s">
+      <c r="AH8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="118" t="s">
+      <c r="AI8" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" s="115" t="s">
+      <c r="AJ8" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="AK8" s="115" t="s">
+      <c r="AK8" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="116" t="s">
+      <c r="AL8" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="116" t="s">
+      <c r="AM8" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="AN8" s="116" t="s">
+      <c r="AN8" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="117" t="s">
+      <c r="AO8" s="119" t="s">
         <v>19</v>
       </c>
       <c r="AP8" s="16" t="s">
@@ -3042,22 +3050,22 @@
       <c r="W9" s="72"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="108"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="110"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="120"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="119"/>
-      <c r="AL9" s="119"/>
-      <c r="AM9" s="120"/>
-      <c r="AN9" s="120"/>
-      <c r="AO9" s="123"/>
+      <c r="Z9" s="109"/>
+      <c r="AA9" s="110"/>
+      <c r="AB9" s="111"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="121"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="122"/>
+      <c r="AH9" s="123"/>
+      <c r="AI9" s="124"/>
+      <c r="AJ9" s="121"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="122"/>
+      <c r="AO9" s="125"/>
       <c r="AP9" s="71"/>
       <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
@@ -3121,18 +3129,18 @@
       <c r="AA10" s="58"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="54"/>
-      <c r="AD10" s="124"/>
-      <c r="AE10" s="124"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="127"/>
-      <c r="AK10" s="124"/>
-      <c r="AL10" s="124"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="114"/>
-      <c r="AO10" s="125"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="127"/>
+      <c r="AI10" s="128"/>
+      <c r="AJ10" s="129"/>
+      <c r="AK10" s="126"/>
+      <c r="AL10" s="126"/>
+      <c r="AM10" s="116"/>
+      <c r="AN10" s="116"/>
+      <c r="AO10" s="127"/>
       <c r="AP10" s="53"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="55"/>
@@ -3198,18 +3206,18 @@
       <c r="AA11" s="58"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="128"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="129"/>
-      <c r="AJ11" s="130"/>
-      <c r="AK11" s="128"/>
-      <c r="AL11" s="128"/>
-      <c r="AM11" s="114"/>
-      <c r="AN11" s="114"/>
-      <c r="AO11" s="125"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="130"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="127"/>
+      <c r="AI11" s="131"/>
+      <c r="AJ11" s="132"/>
+      <c r="AK11" s="130"/>
+      <c r="AL11" s="130"/>
+      <c r="AM11" s="116"/>
+      <c r="AN11" s="116"/>
+      <c r="AO11" s="127"/>
       <c r="AP11" s="59"/>
       <c r="AQ11" s="60"/>
       <c r="AR11" s="61"/>
@@ -3273,18 +3281,18 @@
       <c r="AA12" s="58"/>
       <c r="AB12" s="101"/>
       <c r="AC12" s="106"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="128"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="129"/>
-      <c r="AJ12" s="130"/>
-      <c r="AK12" s="128"/>
-      <c r="AL12" s="128"/>
-      <c r="AM12" s="114"/>
-      <c r="AN12" s="114"/>
-      <c r="AO12" s="125"/>
+      <c r="AD12" s="130"/>
+      <c r="AE12" s="130"/>
+      <c r="AF12" s="116"/>
+      <c r="AG12" s="116"/>
+      <c r="AH12" s="127"/>
+      <c r="AI12" s="131"/>
+      <c r="AJ12" s="132"/>
+      <c r="AK12" s="130"/>
+      <c r="AL12" s="130"/>
+      <c r="AM12" s="116"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="127"/>
       <c r="AP12" s="101"/>
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
@@ -3347,18 +3355,18 @@
       <c r="AA13" s="66"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="124"/>
-      <c r="AE13" s="124"/>
-      <c r="AF13" s="124"/>
-      <c r="AG13" s="131"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="129"/>
-      <c r="AJ13" s="130"/>
-      <c r="AK13" s="124"/>
-      <c r="AL13" s="124"/>
-      <c r="AM13" s="124"/>
-      <c r="AN13" s="131"/>
-      <c r="AO13" s="132"/>
+      <c r="AD13" s="126"/>
+      <c r="AE13" s="126"/>
+      <c r="AF13" s="126"/>
+      <c r="AG13" s="133"/>
+      <c r="AH13" s="134"/>
+      <c r="AI13" s="131"/>
+      <c r="AJ13" s="132"/>
+      <c r="AK13" s="126"/>
+      <c r="AL13" s="126"/>
+      <c r="AM13" s="126"/>
+      <c r="AN13" s="133"/>
+      <c r="AO13" s="134"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
@@ -3390,7 +3398,7 @@
       </c>
       <c r="C14" s="41">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="42">
         <f>SUM(D15:D17)</f>
@@ -3420,19 +3428,19 @@
       <c r="Z14" s="73"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="75"/>
-      <c r="AC14" s="111"/>
-      <c r="AD14" s="133"/>
-      <c r="AE14" s="133"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="134"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="135"/>
-      <c r="AJ14" s="133"/>
-      <c r="AK14" s="133"/>
-      <c r="AL14" s="133"/>
-      <c r="AM14" s="134"/>
-      <c r="AN14" s="134"/>
-      <c r="AO14" s="123"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="135"/>
+      <c r="AF14" s="136"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="137"/>
+      <c r="AJ14" s="135"/>
+      <c r="AK14" s="135"/>
+      <c r="AL14" s="135"/>
+      <c r="AM14" s="136"/>
+      <c r="AN14" s="136"/>
+      <c r="AO14" s="125"/>
       <c r="AP14" s="71"/>
       <c r="AQ14" s="72"/>
       <c r="AR14" s="72"/>
@@ -3462,7 +3470,9 @@
       <c r="B15" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="49"/>
+      <c r="C15" s="49">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="81">
         <f>SUM(G15:BJ15)</f>
         <v>0</v>
@@ -3494,18 +3504,18 @@
       <c r="AA15" s="58"/>
       <c r="AB15" s="53"/>
       <c r="AC15" s="54"/>
-      <c r="AD15" s="124"/>
-      <c r="AE15" s="124"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
-      <c r="AJ15" s="127"/>
-      <c r="AK15" s="124"/>
-      <c r="AL15" s="124"/>
-      <c r="AM15" s="114"/>
-      <c r="AN15" s="114"/>
-      <c r="AO15" s="125"/>
+      <c r="AD15" s="126"/>
+      <c r="AE15" s="126"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="127"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="129"/>
+      <c r="AK15" s="126"/>
+      <c r="AL15" s="126"/>
+      <c r="AM15" s="116"/>
+      <c r="AN15" s="116"/>
+      <c r="AO15" s="127"/>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="54"/>
       <c r="AR15" s="55"/>
@@ -3565,18 +3575,18 @@
       <c r="AA16" s="58"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="124"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="114"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="129"/>
-      <c r="AJ16" s="130"/>
-      <c r="AK16" s="124"/>
-      <c r="AL16" s="124"/>
-      <c r="AM16" s="114"/>
-      <c r="AN16" s="114"/>
-      <c r="AO16" s="125"/>
+      <c r="AD16" s="126"/>
+      <c r="AE16" s="126"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="127"/>
+      <c r="AI16" s="131"/>
+      <c r="AJ16" s="132"/>
+      <c r="AK16" s="126"/>
+      <c r="AL16" s="126"/>
+      <c r="AM16" s="116"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="127"/>
       <c r="AP16" s="59"/>
       <c r="AQ16" s="60"/>
       <c r="AR16" s="55"/>
@@ -3634,18 +3644,18 @@
       <c r="AA17" s="58"/>
       <c r="AB17" s="67"/>
       <c r="AC17" s="68"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="114"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="136"/>
-      <c r="AJ17" s="137"/>
-      <c r="AK17" s="124"/>
-      <c r="AL17" s="124"/>
-      <c r="AM17" s="114"/>
-      <c r="AN17" s="114"/>
-      <c r="AO17" s="125"/>
+      <c r="AD17" s="126"/>
+      <c r="AE17" s="126"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="138"/>
+      <c r="AJ17" s="139"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="116"/>
+      <c r="AN17" s="116"/>
+      <c r="AO17" s="127"/>
       <c r="AP17" s="67"/>
       <c r="AQ17" s="68"/>
       <c r="AR17" s="55"/>
@@ -3676,8 +3686,8 @@
         <v>9</v>
       </c>
       <c r="C18" s="41">
-        <f>SUM(C20:C30)</f>
-        <v>0</v>
+        <f>SUM(C21:C30)</f>
+        <v>69</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3707,21 +3717,21 @@
       <c r="Z18" s="73"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="112"/>
-      <c r="AD18" s="133"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="134"/>
-      <c r="AG18" s="134"/>
-      <c r="AH18" s="123"/>
-      <c r="AI18" s="135"/>
-      <c r="AJ18" s="133"/>
-      <c r="AK18" s="133"/>
-      <c r="AL18" s="133"/>
-      <c r="AM18" s="134"/>
-      <c r="AN18" s="134"/>
-      <c r="AO18" s="123"/>
-      <c r="AP18" s="113"/>
-      <c r="AQ18" s="112"/>
+      <c r="AC18" s="114"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="136"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="137"/>
+      <c r="AJ18" s="135"/>
+      <c r="AK18" s="135"/>
+      <c r="AL18" s="135"/>
+      <c r="AM18" s="136"/>
+      <c r="AN18" s="136"/>
+      <c r="AO18" s="125"/>
+      <c r="AP18" s="115"/>
+      <c r="AQ18" s="114"/>
       <c r="AR18" s="72"/>
       <c r="AS18" s="72"/>
       <c r="AT18" s="73"/>
@@ -3749,7 +3759,9 @@
       <c r="B19" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="148"/>
+      <c r="C19" s="149">
+        <v>4</v>
+      </c>
       <c r="D19" s="81">
         <f>SUM(G19:BJ19)</f>
         <v>0</v>
@@ -3779,18 +3791,18 @@
       <c r="AA19" s="58"/>
       <c r="AB19" s="53"/>
       <c r="AC19" s="54"/>
-      <c r="AD19" s="124"/>
-      <c r="AE19" s="124"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="114"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="124"/>
-      <c r="AM19" s="114"/>
-      <c r="AN19" s="114"/>
-      <c r="AO19" s="125"/>
+      <c r="AD19" s="126"/>
+      <c r="AE19" s="126"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="128"/>
+      <c r="AJ19" s="129"/>
+      <c r="AK19" s="126"/>
+      <c r="AL19" s="126"/>
+      <c r="AM19" s="116"/>
+      <c r="AN19" s="116"/>
+      <c r="AO19" s="127"/>
       <c r="AP19" s="53"/>
       <c r="AQ19" s="54"/>
       <c r="AR19" s="55"/>
@@ -3820,7 +3832,7 @@
       <c r="B20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="148"/>
+      <c r="C20" s="150"/>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -3850,18 +3862,18 @@
       <c r="AA20" s="58"/>
       <c r="AB20" s="101"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="124"/>
-      <c r="AE20" s="124"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="129"/>
-      <c r="AJ20" s="130"/>
-      <c r="AK20" s="124"/>
-      <c r="AL20" s="124"/>
-      <c r="AM20" s="114"/>
-      <c r="AN20" s="114"/>
-      <c r="AO20" s="125"/>
+      <c r="AD20" s="126"/>
+      <c r="AE20" s="126"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="127"/>
+      <c r="AI20" s="131"/>
+      <c r="AJ20" s="132"/>
+      <c r="AK20" s="126"/>
+      <c r="AL20" s="126"/>
+      <c r="AM20" s="116"/>
+      <c r="AN20" s="116"/>
+      <c r="AO20" s="127"/>
       <c r="AP20" s="59"/>
       <c r="AQ20" s="60"/>
       <c r="AR20" s="55"/>
@@ -3891,7 +3903,9 @@
       <c r="B21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="150">
+        <v>4</v>
+      </c>
       <c r="D21" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3908,7 +3922,7 @@
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="141"/>
+      <c r="Q21" s="143"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3920,19 +3934,19 @@
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="59"/>
-      <c r="AC21" s="143"/>
-      <c r="AD21" s="124"/>
-      <c r="AE21" s="124"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="114"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="129"/>
-      <c r="AJ21" s="130"/>
-      <c r="AK21" s="124"/>
-      <c r="AL21" s="124"/>
-      <c r="AM21" s="114"/>
-      <c r="AN21" s="114"/>
-      <c r="AO21" s="125"/>
+      <c r="AC21" s="145"/>
+      <c r="AD21" s="126"/>
+      <c r="AE21" s="126"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="127"/>
+      <c r="AI21" s="131"/>
+      <c r="AJ21" s="132"/>
+      <c r="AK21" s="126"/>
+      <c r="AL21" s="126"/>
+      <c r="AM21" s="116"/>
+      <c r="AN21" s="116"/>
+      <c r="AO21" s="127"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="55"/>
@@ -3962,7 +3976,9 @@
       <c r="B22" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49"/>
+      <c r="C22" s="49">
+        <v>10</v>
+      </c>
       <c r="D22" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3979,7 +3995,7 @@
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
       <c r="P22" s="103"/>
-      <c r="Q22" s="142"/>
+      <c r="Q22" s="144"/>
       <c r="R22" s="100"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
@@ -3991,19 +4007,19 @@
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
-      <c r="AC22" s="143"/>
-      <c r="AD22" s="124"/>
-      <c r="AE22" s="124"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="114"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="130"/>
-      <c r="AK22" s="124"/>
-      <c r="AL22" s="124"/>
-      <c r="AM22" s="114"/>
-      <c r="AN22" s="114"/>
-      <c r="AO22" s="125"/>
+      <c r="AC22" s="145"/>
+      <c r="AD22" s="126"/>
+      <c r="AE22" s="126"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="127"/>
+      <c r="AI22" s="131"/>
+      <c r="AJ22" s="132"/>
+      <c r="AK22" s="126"/>
+      <c r="AL22" s="126"/>
+      <c r="AM22" s="116"/>
+      <c r="AN22" s="116"/>
+      <c r="AO22" s="127"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
       <c r="AR22" s="55"/>
@@ -4033,7 +4049,9 @@
       <c r="B23" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="49"/>
+      <c r="C23" s="49">
+        <v>7</v>
+      </c>
       <c r="D23" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4050,7 +4068,7 @@
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
       <c r="P23" s="104"/>
-      <c r="Q23" s="140"/>
+      <c r="Q23" s="142"/>
       <c r="R23" s="100"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
@@ -4062,19 +4080,19 @@
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="59"/>
-      <c r="AC23" s="143"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="114"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="129"/>
-      <c r="AJ23" s="130"/>
-      <c r="AK23" s="128"/>
-      <c r="AL23" s="128"/>
-      <c r="AM23" s="114"/>
-      <c r="AN23" s="114"/>
-      <c r="AO23" s="125"/>
+      <c r="AC23" s="145"/>
+      <c r="AD23" s="130"/>
+      <c r="AE23" s="130"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="131"/>
+      <c r="AJ23" s="132"/>
+      <c r="AK23" s="130"/>
+      <c r="AL23" s="130"/>
+      <c r="AM23" s="116"/>
+      <c r="AN23" s="116"/>
+      <c r="AO23" s="127"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="61"/>
@@ -4104,7 +4122,9 @@
       <c r="B24" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="49">
+        <v>9</v>
+      </c>
       <c r="D24" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4133,19 +4153,19 @@
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
-      <c r="AC24" s="143"/>
-      <c r="AD24" s="124"/>
-      <c r="AE24" s="124"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="114"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="129"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="124"/>
-      <c r="AL24" s="124"/>
-      <c r="AM24" s="114"/>
-      <c r="AN24" s="114"/>
-      <c r="AO24" s="125"/>
+      <c r="AC24" s="148"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="126"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="127"/>
+      <c r="AI24" s="131"/>
+      <c r="AJ24" s="132"/>
+      <c r="AK24" s="126"/>
+      <c r="AL24" s="126"/>
+      <c r="AM24" s="116"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="127"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
       <c r="AR24" s="55"/>
@@ -4175,7 +4195,9 @@
       <c r="B25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="149">
+        <v>7</v>
+      </c>
       <c r="D25" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4204,19 +4226,19 @@
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
-      <c r="AC25" s="143"/>
-      <c r="AD25" s="124"/>
-      <c r="AE25" s="124"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="114"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="129"/>
-      <c r="AJ25" s="130"/>
-      <c r="AK25" s="124"/>
-      <c r="AL25" s="124"/>
-      <c r="AM25" s="114"/>
-      <c r="AN25" s="114"/>
-      <c r="AO25" s="125"/>
+      <c r="AC25" s="145"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="126"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="131"/>
+      <c r="AJ25" s="132"/>
+      <c r="AK25" s="126"/>
+      <c r="AL25" s="126"/>
+      <c r="AM25" s="116"/>
+      <c r="AN25" s="116"/>
+      <c r="AO25" s="127"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="55"/>
@@ -4246,7 +4268,9 @@
       <c r="B26" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="49">
+        <v>8</v>
+      </c>
       <c r="D26" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4275,19 +4299,19 @@
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
-      <c r="AC26" s="143"/>
-      <c r="AD26" s="124"/>
-      <c r="AE26" s="124"/>
-      <c r="AF26" s="114"/>
-      <c r="AG26" s="114"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="129"/>
-      <c r="AJ26" s="130"/>
-      <c r="AK26" s="124"/>
-      <c r="AL26" s="124"/>
-      <c r="AM26" s="114"/>
-      <c r="AN26" s="114"/>
-      <c r="AO26" s="125"/>
+      <c r="AC26" s="145"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="126"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="127"/>
+      <c r="AI26" s="131"/>
+      <c r="AJ26" s="132"/>
+      <c r="AK26" s="126"/>
+      <c r="AL26" s="126"/>
+      <c r="AM26" s="116"/>
+      <c r="AN26" s="116"/>
+      <c r="AO26" s="127"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
       <c r="AR26" s="55"/>
@@ -4317,7 +4341,9 @@
       <c r="B27" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49">
+        <v>8</v>
+      </c>
       <c r="D27" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4346,19 +4372,19 @@
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
-      <c r="AC27" s="143"/>
-      <c r="AD27" s="124"/>
-      <c r="AE27" s="124"/>
-      <c r="AF27" s="114"/>
-      <c r="AG27" s="114"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="129"/>
-      <c r="AJ27" s="130"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="124"/>
-      <c r="AM27" s="114"/>
-      <c r="AN27" s="114"/>
-      <c r="AO27" s="125"/>
+      <c r="AC27" s="145"/>
+      <c r="AD27" s="126"/>
+      <c r="AE27" s="126"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="127"/>
+      <c r="AI27" s="131"/>
+      <c r="AJ27" s="132"/>
+      <c r="AK27" s="126"/>
+      <c r="AL27" s="126"/>
+      <c r="AM27" s="116"/>
+      <c r="AN27" s="116"/>
+      <c r="AO27" s="127"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
@@ -4388,7 +4414,9 @@
       <c r="B28" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="49">
+        <v>7</v>
+      </c>
       <c r="D28" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4417,19 +4445,19 @@
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
-      <c r="AC28" s="143"/>
-      <c r="AD28" s="124"/>
-      <c r="AE28" s="124"/>
-      <c r="AF28" s="114"/>
-      <c r="AG28" s="114"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="129"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="124"/>
-      <c r="AL28" s="124"/>
-      <c r="AM28" s="114"/>
-      <c r="AN28" s="114"/>
-      <c r="AO28" s="125"/>
+      <c r="AC28" s="145"/>
+      <c r="AD28" s="126"/>
+      <c r="AE28" s="126"/>
+      <c r="AF28" s="116"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="127"/>
+      <c r="AI28" s="131"/>
+      <c r="AJ28" s="132"/>
+      <c r="AK28" s="126"/>
+      <c r="AL28" s="126"/>
+      <c r="AM28" s="116"/>
+      <c r="AN28" s="116"/>
+      <c r="AO28" s="127"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
       <c r="AR28" s="55"/>
@@ -4459,7 +4487,9 @@
       <c r="B29" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="49">
+        <v>9</v>
+      </c>
       <c r="D29" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4487,20 +4517,20 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="144"/>
-      <c r="AC29" s="145"/>
-      <c r="AD29" s="124"/>
-      <c r="AE29" s="124"/>
-      <c r="AF29" s="114"/>
-      <c r="AG29" s="114"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="138"/>
-      <c r="AJ29" s="139"/>
-      <c r="AK29" s="124"/>
-      <c r="AL29" s="124"/>
-      <c r="AM29" s="114"/>
-      <c r="AN29" s="114"/>
-      <c r="AO29" s="125"/>
+      <c r="AB29" s="146"/>
+      <c r="AC29" s="147"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="127"/>
+      <c r="AI29" s="140"/>
+      <c r="AJ29" s="141"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="126"/>
+      <c r="AM29" s="116"/>
+      <c r="AN29" s="116"/>
+      <c r="AO29" s="127"/>
       <c r="AP29" s="69"/>
       <c r="AQ29" s="70"/>
       <c r="AR29" s="105"/>
@@ -4556,20 +4586,20 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="146"/>
-      <c r="AD30" s="124"/>
-      <c r="AE30" s="124"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="137"/>
-      <c r="AK30" s="124"/>
-      <c r="AL30" s="124"/>
-      <c r="AM30" s="114"/>
-      <c r="AN30" s="114"/>
-      <c r="AO30" s="125"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="126"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="127"/>
+      <c r="AI30" s="138"/>
+      <c r="AJ30" s="139"/>
+      <c r="AK30" s="126"/>
+      <c r="AL30" s="126"/>
+      <c r="AM30" s="116"/>
+      <c r="AN30" s="116"/>
+      <c r="AO30" s="127"/>
       <c r="AP30" s="67"/>
       <c r="AQ30" s="68"/>
       <c r="AR30" s="55"/>
@@ -4601,7 +4631,7 @@
       </c>
       <c r="C31" s="41">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D31" s="42">
         <f>SUM(D32:D35)</f>
@@ -4632,18 +4662,18 @@
       <c r="AA31" s="74"/>
       <c r="AB31" s="75"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="133"/>
-      <c r="AE31" s="133"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="123"/>
-      <c r="AI31" s="135"/>
-      <c r="AJ31" s="133"/>
-      <c r="AK31" s="133"/>
-      <c r="AL31" s="133"/>
-      <c r="AM31" s="134"/>
-      <c r="AN31" s="134"/>
-      <c r="AO31" s="123"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="135"/>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="135"/>
+      <c r="AK31" s="135"/>
+      <c r="AL31" s="135"/>
+      <c r="AM31" s="136"/>
+      <c r="AN31" s="136"/>
+      <c r="AO31" s="125"/>
       <c r="AP31" s="71"/>
       <c r="AQ31" s="72"/>
       <c r="AR31" s="72"/>
@@ -4673,7 +4703,9 @@
       <c r="B32" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="49">
+        <v>2</v>
+      </c>
       <c r="D32" s="81">
         <f>SUM(G32:BJ32)</f>
         <v>0</v>
@@ -4703,18 +4735,18 @@
       <c r="AA32" s="58"/>
       <c r="AB32" s="53"/>
       <c r="AC32" s="54"/>
-      <c r="AD32" s="124"/>
-      <c r="AE32" s="124"/>
-      <c r="AF32" s="114"/>
-      <c r="AG32" s="114"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="124"/>
-      <c r="AM32" s="114"/>
-      <c r="AN32" s="114"/>
-      <c r="AO32" s="125"/>
+      <c r="AD32" s="126"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="128"/>
+      <c r="AJ32" s="129"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="116"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="127"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
       <c r="AR32" s="103"/>
@@ -4744,7 +4776,9 @@
       <c r="B33" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="49">
+        <v>5</v>
+      </c>
       <c r="D33" s="81">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
         <v>0</v>
@@ -4774,18 +4808,18 @@
       <c r="AA33" s="58"/>
       <c r="AB33" s="59"/>
       <c r="AC33" s="60"/>
-      <c r="AD33" s="124"/>
-      <c r="AE33" s="124"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="129"/>
-      <c r="AJ33" s="130"/>
-      <c r="AK33" s="124"/>
-      <c r="AL33" s="124"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="125"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="131"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="126"/>
+      <c r="AL33" s="126"/>
+      <c r="AM33" s="116"/>
+      <c r="AN33" s="116"/>
+      <c r="AO33" s="127"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
       <c r="AR33" s="103"/>
@@ -4815,7 +4849,9 @@
       <c r="B34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="49">
+        <v>4</v>
+      </c>
       <c r="D34" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4845,18 +4881,18 @@
       <c r="AA34" s="58"/>
       <c r="AB34" s="59"/>
       <c r="AC34" s="60"/>
-      <c r="AD34" s="124"/>
-      <c r="AE34" s="124"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="125"/>
-      <c r="AI34" s="129"/>
-      <c r="AJ34" s="130"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="124"/>
-      <c r="AM34" s="114"/>
-      <c r="AN34" s="114"/>
-      <c r="AO34" s="125"/>
+      <c r="AD34" s="126"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="127"/>
+      <c r="AI34" s="131"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="126"/>
+      <c r="AL34" s="126"/>
+      <c r="AM34" s="116"/>
+      <c r="AN34" s="116"/>
+      <c r="AO34" s="127"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
       <c r="AR34" s="103"/>
@@ -4914,18 +4950,18 @@
       <c r="AA35" s="58"/>
       <c r="AB35" s="67"/>
       <c r="AC35" s="68"/>
-      <c r="AD35" s="124"/>
-      <c r="AE35" s="124"/>
-      <c r="AF35" s="114"/>
-      <c r="AG35" s="114"/>
-      <c r="AH35" s="125"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="137"/>
-      <c r="AK35" s="124"/>
-      <c r="AL35" s="124"/>
-      <c r="AM35" s="114"/>
-      <c r="AN35" s="114"/>
-      <c r="AO35" s="125"/>
+      <c r="AD35" s="126"/>
+      <c r="AE35" s="126"/>
+      <c r="AF35" s="116"/>
+      <c r="AG35" s="116"/>
+      <c r="AH35" s="127"/>
+      <c r="AI35" s="138"/>
+      <c r="AJ35" s="139"/>
+      <c r="AK35" s="126"/>
+      <c r="AL35" s="126"/>
+      <c r="AM35" s="116"/>
+      <c r="AN35" s="116"/>
+      <c r="AO35" s="127"/>
       <c r="AP35" s="67"/>
       <c r="AQ35" s="68"/>
       <c r="AR35" s="55"/>
@@ -4957,7 +4993,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -4988,18 +5024,18 @@
       <c r="AA36" s="74"/>
       <c r="AB36" s="75"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="133"/>
-      <c r="AE36" s="133"/>
-      <c r="AF36" s="134"/>
-      <c r="AG36" s="134"/>
-      <c r="AH36" s="123"/>
-      <c r="AI36" s="135"/>
-      <c r="AJ36" s="133"/>
-      <c r="AK36" s="133"/>
-      <c r="AL36" s="133"/>
-      <c r="AM36" s="134"/>
-      <c r="AN36" s="134"/>
-      <c r="AO36" s="123"/>
+      <c r="AD36" s="135"/>
+      <c r="AE36" s="135"/>
+      <c r="AF36" s="136"/>
+      <c r="AG36" s="136"/>
+      <c r="AH36" s="125"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="135"/>
+      <c r="AK36" s="135"/>
+      <c r="AL36" s="135"/>
+      <c r="AM36" s="136"/>
+      <c r="AN36" s="136"/>
+      <c r="AO36" s="125"/>
       <c r="AP36" s="71"/>
       <c r="AQ36" s="72"/>
       <c r="AR36" s="72"/>
@@ -5029,7 +5065,9 @@
       <c r="B37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="49"/>
+      <c r="C37" s="49">
+        <v>8</v>
+      </c>
       <c r="D37" s="81">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
@@ -5059,18 +5097,18 @@
       <c r="AA37" s="58"/>
       <c r="AB37" s="53"/>
       <c r="AC37" s="54"/>
-      <c r="AD37" s="124"/>
-      <c r="AE37" s="124"/>
-      <c r="AF37" s="114"/>
-      <c r="AG37" s="114"/>
-      <c r="AH37" s="125"/>
-      <c r="AI37" s="126"/>
-      <c r="AJ37" s="127"/>
-      <c r="AK37" s="124"/>
-      <c r="AL37" s="124"/>
-      <c r="AM37" s="114"/>
-      <c r="AN37" s="114"/>
-      <c r="AO37" s="125"/>
+      <c r="AD37" s="126"/>
+      <c r="AE37" s="126"/>
+      <c r="AF37" s="116"/>
+      <c r="AG37" s="116"/>
+      <c r="AH37" s="127"/>
+      <c r="AI37" s="128"/>
+      <c r="AJ37" s="129"/>
+      <c r="AK37" s="126"/>
+      <c r="AL37" s="126"/>
+      <c r="AM37" s="116"/>
+      <c r="AN37" s="116"/>
+      <c r="AO37" s="127"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="55"/>
@@ -5128,18 +5166,18 @@
       <c r="AA38" s="58"/>
       <c r="AB38" s="67"/>
       <c r="AC38" s="68"/>
-      <c r="AD38" s="124"/>
-      <c r="AE38" s="124"/>
-      <c r="AF38" s="114"/>
-      <c r="AG38" s="114"/>
-      <c r="AH38" s="125"/>
-      <c r="AI38" s="136"/>
-      <c r="AJ38" s="137"/>
-      <c r="AK38" s="124"/>
-      <c r="AL38" s="124"/>
-      <c r="AM38" s="114"/>
-      <c r="AN38" s="114"/>
-      <c r="AO38" s="125"/>
+      <c r="AD38" s="126"/>
+      <c r="AE38" s="126"/>
+      <c r="AF38" s="116"/>
+      <c r="AG38" s="116"/>
+      <c r="AH38" s="127"/>
+      <c r="AI38" s="138"/>
+      <c r="AJ38" s="139"/>
+      <c r="AK38" s="126"/>
+      <c r="AL38" s="126"/>
+      <c r="AM38" s="116"/>
+      <c r="AN38" s="116"/>
+      <c r="AO38" s="127"/>
       <c r="AP38" s="67"/>
       <c r="AQ38" s="68"/>
       <c r="AR38" s="55"/>
@@ -5171,7 +5209,7 @@
       </c>
       <c r="C39" s="41">
         <f>SUM(C40:C42)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D39" s="42">
         <f>SUM(D40:D42)</f>
@@ -5202,18 +5240,18 @@
       <c r="AA39" s="74"/>
       <c r="AB39" s="75"/>
       <c r="AC39" s="72"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
-      <c r="AF39" s="134"/>
-      <c r="AG39" s="134"/>
-      <c r="AH39" s="123"/>
-      <c r="AI39" s="135"/>
-      <c r="AJ39" s="133"/>
-      <c r="AK39" s="133"/>
-      <c r="AL39" s="133"/>
-      <c r="AM39" s="134"/>
-      <c r="AN39" s="134"/>
-      <c r="AO39" s="123"/>
+      <c r="AD39" s="135"/>
+      <c r="AE39" s="135"/>
+      <c r="AF39" s="136"/>
+      <c r="AG39" s="136"/>
+      <c r="AH39" s="125"/>
+      <c r="AI39" s="137"/>
+      <c r="AJ39" s="135"/>
+      <c r="AK39" s="135"/>
+      <c r="AL39" s="135"/>
+      <c r="AM39" s="136"/>
+      <c r="AN39" s="136"/>
+      <c r="AO39" s="125"/>
       <c r="AP39" s="71"/>
       <c r="AQ39" s="72"/>
       <c r="AR39" s="72"/>
@@ -5243,7 +5281,9 @@
       <c r="B40" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="49">
+        <v>5</v>
+      </c>
       <c r="D40" s="81">
         <f>SUM(G40:BJ40)</f>
         <v>0</v>
@@ -5273,23 +5313,23 @@
       <c r="AA40" s="58"/>
       <c r="AB40" s="53"/>
       <c r="AC40" s="54"/>
-      <c r="AD40" s="124"/>
-      <c r="AE40" s="124"/>
-      <c r="AF40" s="114"/>
-      <c r="AG40" s="114"/>
-      <c r="AH40" s="125"/>
-      <c r="AI40" s="126"/>
-      <c r="AJ40" s="127"/>
-      <c r="AK40" s="124"/>
-      <c r="AL40" s="124"/>
-      <c r="AM40" s="114"/>
-      <c r="AN40" s="114"/>
-      <c r="AO40" s="125"/>
+      <c r="AD40" s="126"/>
+      <c r="AE40" s="126"/>
+      <c r="AF40" s="116"/>
+      <c r="AG40" s="116"/>
+      <c r="AH40" s="127"/>
+      <c r="AI40" s="128"/>
+      <c r="AJ40" s="129"/>
+      <c r="AK40" s="126"/>
+      <c r="AL40" s="126"/>
+      <c r="AM40" s="116"/>
+      <c r="AN40" s="116"/>
+      <c r="AO40" s="127"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="55"/>
       <c r="AS40" s="103"/>
-      <c r="AT40" s="147"/>
+      <c r="AT40" s="148"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="53"/>
@@ -5314,7 +5354,9 @@
       <c r="B41" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="49">
+        <v>4</v>
+      </c>
       <c r="D41" s="81">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
         <v>0</v>
@@ -5344,18 +5386,18 @@
       <c r="AA41" s="58"/>
       <c r="AB41" s="59"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="124"/>
-      <c r="AE41" s="124"/>
-      <c r="AF41" s="114"/>
-      <c r="AG41" s="114"/>
-      <c r="AH41" s="125"/>
-      <c r="AI41" s="129"/>
-      <c r="AJ41" s="130"/>
-      <c r="AK41" s="124"/>
-      <c r="AL41" s="124"/>
-      <c r="AM41" s="114"/>
-      <c r="AN41" s="114"/>
-      <c r="AO41" s="125"/>
+      <c r="AD41" s="126"/>
+      <c r="AE41" s="126"/>
+      <c r="AF41" s="116"/>
+      <c r="AG41" s="116"/>
+      <c r="AH41" s="127"/>
+      <c r="AI41" s="131"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="126"/>
+      <c r="AL41" s="126"/>
+      <c r="AM41" s="116"/>
+      <c r="AN41" s="116"/>
+      <c r="AO41" s="127"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
@@ -5413,18 +5455,18 @@
       <c r="AA42" s="58"/>
       <c r="AB42" s="67"/>
       <c r="AC42" s="68"/>
-      <c r="AD42" s="124"/>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="114"/>
-      <c r="AG42" s="114"/>
-      <c r="AH42" s="125"/>
-      <c r="AI42" s="136"/>
-      <c r="AJ42" s="137"/>
-      <c r="AK42" s="124"/>
-      <c r="AL42" s="124"/>
-      <c r="AM42" s="114"/>
-      <c r="AN42" s="114"/>
-      <c r="AO42" s="125"/>
+      <c r="AD42" s="126"/>
+      <c r="AE42" s="126"/>
+      <c r="AF42" s="116"/>
+      <c r="AG42" s="116"/>
+      <c r="AH42" s="127"/>
+      <c r="AI42" s="138"/>
+      <c r="AJ42" s="139"/>
+      <c r="AK42" s="126"/>
+      <c r="AL42" s="126"/>
+      <c r="AM42" s="116"/>
+      <c r="AN42" s="116"/>
+      <c r="AO42" s="127"/>
       <c r="AP42" s="67"/>
       <c r="AQ42" s="68"/>
       <c r="AR42" s="55"/>
@@ -5769,7 +5811,7 @@
       <c r="B4" s="97"/>
       <c r="C4" s="78">
         <f>Zeitplanung!C14</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="78">
         <f>Zeitplanung!D14</f>
@@ -5786,7 +5828,7 @@
       <c r="B5" s="97"/>
       <c r="C5" s="78">
         <f>Zeitplanung!C18</f>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
@@ -5803,7 +5845,7 @@
       <c r="B6" s="97"/>
       <c r="C6" s="78">
         <f>Zeitplanung!C31</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D6" s="78">
         <f>Zeitplanung!D31</f>
@@ -5819,7 +5861,7 @@
       <c r="B7" s="97"/>
       <c r="C7" s="78">
         <f>Zeitplanung!C36</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D7" s="78">
         <f>Zeitplanung!D36</f>
@@ -5835,7 +5877,7 @@
       <c r="B8" s="97"/>
       <c r="C8" s="78">
         <f>Zeitplanung!C39</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" s="78">
         <f>Zeitplanung!D39</f>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5365DD25-2769-0D46-9C2D-A7DCEF3F8336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607DF0E-A1C1-1149-8820-F234EB3160B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2607DF0E-A1C1-1149-8820-F234EB3160B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4414D878-6FBE-CE4F-B04D-7E2298F34BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -94,6 +94,28 @@
     </comment>
   </commentList>
 </comments>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1507,6 +1529,206 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1537,206 +1759,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1844,13 +1866,13 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>9</c:v>
@@ -2425,8 +2447,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2745,88 +2767,88 @@
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="27"/>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="91"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="92" t="s">
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="92" t="s">
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94" t="s">
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="144"/>
+      <c r="AB7" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="92" t="s">
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="144"/>
+      <c r="AI7" s="143" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="92"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="94" t="s">
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="144"/>
+      <c r="AP7" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="92" t="s">
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="144"/>
+      <c r="AW7" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="94" t="s">
+      <c r="AX7" s="143"/>
+      <c r="AY7" s="143"/>
+      <c r="AZ7" s="143"/>
+      <c r="BA7" s="143"/>
+      <c r="BB7" s="143"/>
+      <c r="BC7" s="144"/>
+      <c r="BD7" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="92"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="95"/>
+      <c r="BE7" s="143"/>
+      <c r="BF7" s="143"/>
+      <c r="BG7" s="143"/>
+      <c r="BH7" s="143"/>
+      <c r="BI7" s="143"/>
+      <c r="BJ7" s="146"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
@@ -2914,40 +2936,40 @@
       <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="117" t="s">
+      <c r="AD8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" s="118" t="s">
+      <c r="AE8" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="118" t="s">
+      <c r="AF8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="118" t="s">
+      <c r="AG8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AH8" s="119" t="s">
+      <c r="AH8" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="120" t="s">
+      <c r="AI8" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" s="117" t="s">
+      <c r="AJ8" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AK8" s="117" t="s">
+      <c r="AK8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="118" t="s">
+      <c r="AL8" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="118" t="s">
+      <c r="AM8" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AN8" s="118" t="s">
+      <c r="AN8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="119" t="s">
+      <c r="AO8" s="110" t="s">
         <v>19</v>
       </c>
       <c r="AP8" s="16" t="s">
@@ -3050,22 +3072,22 @@
       <c r="W9" s="72"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
-      <c r="AB9" s="111"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="123"/>
-      <c r="AI9" s="124"/>
-      <c r="AJ9" s="121"/>
-      <c r="AK9" s="121"/>
-      <c r="AL9" s="121"/>
-      <c r="AM9" s="122"/>
-      <c r="AN9" s="122"/>
-      <c r="AO9" s="125"/>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="101"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="114"/>
+      <c r="AI9" s="115"/>
+      <c r="AJ9" s="112"/>
+      <c r="AK9" s="112"/>
+      <c r="AL9" s="112"/>
+      <c r="AM9" s="113"/>
+      <c r="AN9" s="113"/>
+      <c r="AO9" s="116"/>
       <c r="AP9" s="71"/>
       <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
@@ -3129,18 +3151,18 @@
       <c r="AA10" s="58"/>
       <c r="AB10" s="53"/>
       <c r="AC10" s="54"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="127"/>
-      <c r="AI10" s="128"/>
-      <c r="AJ10" s="129"/>
-      <c r="AK10" s="126"/>
-      <c r="AL10" s="126"/>
-      <c r="AM10" s="116"/>
-      <c r="AN10" s="116"/>
-      <c r="AO10" s="127"/>
+      <c r="AD10" s="117"/>
+      <c r="AE10" s="117"/>
+      <c r="AF10" s="107"/>
+      <c r="AG10" s="107"/>
+      <c r="AH10" s="118"/>
+      <c r="AI10" s="119"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="117"/>
+      <c r="AL10" s="117"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="107"/>
+      <c r="AO10" s="118"/>
       <c r="AP10" s="53"/>
       <c r="AQ10" s="54"/>
       <c r="AR10" s="55"/>
@@ -3206,18 +3228,18 @@
       <c r="AA11" s="58"/>
       <c r="AB11" s="59"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="127"/>
-      <c r="AI11" s="131"/>
-      <c r="AJ11" s="132"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="116"/>
-      <c r="AN11" s="116"/>
-      <c r="AO11" s="127"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="121"/>
+      <c r="AF11" s="107"/>
+      <c r="AG11" s="107"/>
+      <c r="AH11" s="118"/>
+      <c r="AI11" s="122"/>
+      <c r="AJ11" s="123"/>
+      <c r="AK11" s="121"/>
+      <c r="AL11" s="121"/>
+      <c r="AM11" s="107"/>
+      <c r="AN11" s="107"/>
+      <c r="AO11" s="118"/>
       <c r="AP11" s="59"/>
       <c r="AQ11" s="60"/>
       <c r="AR11" s="61"/>
@@ -3248,7 +3270,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="49">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="81">
         <f>SUM(G12:BJ12)</f>
@@ -3258,42 +3280,42 @@
         <v>1</v>
       </c>
       <c r="F12" s="51"/>
-      <c r="G12" s="101"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="60"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
-      <c r="K12" s="100"/>
+      <c r="K12" s="91"/>
       <c r="L12" s="57"/>
       <c r="M12" s="58"/>
-      <c r="N12" s="101"/>
+      <c r="N12" s="92"/>
       <c r="O12" s="60"/>
       <c r="P12" s="61"/>
       <c r="Q12" s="61"/>
-      <c r="R12" s="100"/>
+      <c r="R12" s="91"/>
       <c r="S12" s="57"/>
       <c r="T12" s="58"/>
-      <c r="U12" s="101"/>
+      <c r="U12" s="92"/>
       <c r="V12" s="60"/>
       <c r="W12" s="61"/>
       <c r="X12" s="61"/>
-      <c r="Y12" s="100"/>
+      <c r="Y12" s="91"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="58"/>
-      <c r="AB12" s="101"/>
-      <c r="AC12" s="106"/>
-      <c r="AD12" s="130"/>
-      <c r="AE12" s="130"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="116"/>
-      <c r="AH12" s="127"/>
-      <c r="AI12" s="131"/>
-      <c r="AJ12" s="132"/>
-      <c r="AK12" s="130"/>
-      <c r="AL12" s="130"/>
-      <c r="AM12" s="116"/>
-      <c r="AN12" s="116"/>
-      <c r="AO12" s="127"/>
-      <c r="AP12" s="101"/>
+      <c r="AB12" s="92"/>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="121"/>
+      <c r="AE12" s="121"/>
+      <c r="AF12" s="107"/>
+      <c r="AG12" s="107"/>
+      <c r="AH12" s="118"/>
+      <c r="AI12" s="122"/>
+      <c r="AJ12" s="123"/>
+      <c r="AK12" s="121"/>
+      <c r="AL12" s="121"/>
+      <c r="AM12" s="107"/>
+      <c r="AN12" s="107"/>
+      <c r="AO12" s="118"/>
+      <c r="AP12" s="92"/>
       <c r="AQ12" s="60"/>
       <c r="AR12" s="61"/>
       <c r="AS12" s="61"/>
@@ -3355,18 +3377,18 @@
       <c r="AA13" s="66"/>
       <c r="AB13" s="59"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="126"/>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="126"/>
-      <c r="AG13" s="133"/>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="131"/>
-      <c r="AJ13" s="132"/>
-      <c r="AK13" s="126"/>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="133"/>
-      <c r="AO13" s="134"/>
+      <c r="AD13" s="117"/>
+      <c r="AE13" s="117"/>
+      <c r="AF13" s="117"/>
+      <c r="AG13" s="124"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="122"/>
+      <c r="AJ13" s="123"/>
+      <c r="AK13" s="117"/>
+      <c r="AL13" s="117"/>
+      <c r="AM13" s="117"/>
+      <c r="AN13" s="124"/>
+      <c r="AO13" s="125"/>
       <c r="AP13" s="59"/>
       <c r="AQ13" s="60"/>
       <c r="AR13" s="55"/>
@@ -3428,19 +3450,19 @@
       <c r="Z14" s="73"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="75"/>
-      <c r="AC14" s="113"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="136"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="135"/>
-      <c r="AK14" s="135"/>
-      <c r="AL14" s="135"/>
-      <c r="AM14" s="136"/>
-      <c r="AN14" s="136"/>
-      <c r="AO14" s="125"/>
+      <c r="AC14" s="104"/>
+      <c r="AD14" s="126"/>
+      <c r="AE14" s="126"/>
+      <c r="AF14" s="127"/>
+      <c r="AG14" s="127"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="126"/>
+      <c r="AK14" s="126"/>
+      <c r="AL14" s="126"/>
+      <c r="AM14" s="127"/>
+      <c r="AN14" s="127"/>
+      <c r="AO14" s="116"/>
       <c r="AP14" s="71"/>
       <c r="AQ14" s="72"/>
       <c r="AR14" s="72"/>
@@ -3504,18 +3526,18 @@
       <c r="AA15" s="58"/>
       <c r="AB15" s="53"/>
       <c r="AC15" s="54"/>
-      <c r="AD15" s="126"/>
-      <c r="AE15" s="126"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="127"/>
-      <c r="AI15" s="128"/>
-      <c r="AJ15" s="129"/>
-      <c r="AK15" s="126"/>
-      <c r="AL15" s="126"/>
-      <c r="AM15" s="116"/>
-      <c r="AN15" s="116"/>
-      <c r="AO15" s="127"/>
+      <c r="AD15" s="117"/>
+      <c r="AE15" s="117"/>
+      <c r="AF15" s="107"/>
+      <c r="AG15" s="107"/>
+      <c r="AH15" s="118"/>
+      <c r="AI15" s="119"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="117"/>
+      <c r="AL15" s="117"/>
+      <c r="AM15" s="107"/>
+      <c r="AN15" s="107"/>
+      <c r="AO15" s="118"/>
       <c r="AP15" s="53"/>
       <c r="AQ15" s="54"/>
       <c r="AR15" s="55"/>
@@ -3575,18 +3597,18 @@
       <c r="AA16" s="58"/>
       <c r="AB16" s="59"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="126"/>
-      <c r="AE16" s="126"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="127"/>
-      <c r="AI16" s="131"/>
-      <c r="AJ16" s="132"/>
-      <c r="AK16" s="126"/>
-      <c r="AL16" s="126"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="127"/>
+      <c r="AD16" s="117"/>
+      <c r="AE16" s="117"/>
+      <c r="AF16" s="107"/>
+      <c r="AG16" s="107"/>
+      <c r="AH16" s="118"/>
+      <c r="AI16" s="122"/>
+      <c r="AJ16" s="123"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="107"/>
+      <c r="AN16" s="107"/>
+      <c r="AO16" s="118"/>
       <c r="AP16" s="59"/>
       <c r="AQ16" s="60"/>
       <c r="AR16" s="55"/>
@@ -3644,18 +3666,18 @@
       <c r="AA17" s="58"/>
       <c r="AB17" s="67"/>
       <c r="AC17" s="68"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="126"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="138"/>
-      <c r="AJ17" s="139"/>
-      <c r="AK17" s="126"/>
-      <c r="AL17" s="126"/>
-      <c r="AM17" s="116"/>
-      <c r="AN17" s="116"/>
-      <c r="AO17" s="127"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="118"/>
+      <c r="AI17" s="129"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="117"/>
+      <c r="AM17" s="107"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="118"/>
       <c r="AP17" s="67"/>
       <c r="AQ17" s="68"/>
       <c r="AR17" s="55"/>
@@ -3687,7 +3709,7 @@
       </c>
       <c r="C18" s="41">
         <f>SUM(C21:C30)</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" s="42">
         <f>SUM(D19:D30)</f>
@@ -3717,21 +3739,21 @@
       <c r="Z18" s="73"/>
       <c r="AA18" s="74"/>
       <c r="AB18" s="75"/>
-      <c r="AC18" s="114"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="135"/>
-      <c r="AF18" s="136"/>
-      <c r="AG18" s="136"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="137"/>
-      <c r="AJ18" s="135"/>
-      <c r="AK18" s="135"/>
-      <c r="AL18" s="135"/>
-      <c r="AM18" s="136"/>
-      <c r="AN18" s="136"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="115"/>
-      <c r="AQ18" s="114"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="126"/>
+      <c r="AE18" s="126"/>
+      <c r="AF18" s="127"/>
+      <c r="AG18" s="127"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="128"/>
+      <c r="AJ18" s="126"/>
+      <c r="AK18" s="126"/>
+      <c r="AL18" s="126"/>
+      <c r="AM18" s="127"/>
+      <c r="AN18" s="127"/>
+      <c r="AO18" s="116"/>
+      <c r="AP18" s="106"/>
+      <c r="AQ18" s="105"/>
       <c r="AR18" s="72"/>
       <c r="AS18" s="72"/>
       <c r="AT18" s="73"/>
@@ -3759,7 +3781,7 @@
       <c r="B19" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="149">
+      <c r="C19" s="140">
         <v>4</v>
       </c>
       <c r="D19" s="81">
@@ -3771,7 +3793,7 @@
       <c r="G19" s="53"/>
       <c r="H19" s="54"/>
       <c r="I19" s="55"/>
-      <c r="J19" s="103"/>
+      <c r="J19" s="94"/>
       <c r="K19" s="56"/>
       <c r="L19" s="57"/>
       <c r="M19" s="58"/>
@@ -3791,18 +3813,18 @@
       <c r="AA19" s="58"/>
       <c r="AB19" s="53"/>
       <c r="AC19" s="54"/>
-      <c r="AD19" s="126"/>
-      <c r="AE19" s="126"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="128"/>
-      <c r="AJ19" s="129"/>
-      <c r="AK19" s="126"/>
-      <c r="AL19" s="126"/>
-      <c r="AM19" s="116"/>
-      <c r="AN19" s="116"/>
-      <c r="AO19" s="127"/>
+      <c r="AD19" s="117"/>
+      <c r="AE19" s="117"/>
+      <c r="AF19" s="107"/>
+      <c r="AG19" s="107"/>
+      <c r="AH19" s="118"/>
+      <c r="AI19" s="119"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="117"/>
+      <c r="AL19" s="117"/>
+      <c r="AM19" s="107"/>
+      <c r="AN19" s="107"/>
+      <c r="AO19" s="118"/>
       <c r="AP19" s="53"/>
       <c r="AQ19" s="54"/>
       <c r="AR19" s="55"/>
@@ -3832,7 +3854,9 @@
       <c r="B20" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="150"/>
+      <c r="C20" s="141">
+        <v>4</v>
+      </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
         <v>0</v>
@@ -3843,37 +3867,37 @@
       <c r="H20" s="60"/>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
-      <c r="K20" s="102"/>
+      <c r="K20" s="93"/>
       <c r="L20" s="57"/>
       <c r="M20" s="58"/>
       <c r="N20" s="59"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="102"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="93"/>
       <c r="S20" s="57"/>
       <c r="T20" s="58"/>
       <c r="U20" s="59"/>
       <c r="V20" s="60"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="102"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="93"/>
       <c r="Z20" s="57"/>
       <c r="AA20" s="58"/>
-      <c r="AB20" s="101"/>
+      <c r="AB20" s="92"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="126"/>
-      <c r="AE20" s="126"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="131"/>
-      <c r="AJ20" s="132"/>
-      <c r="AK20" s="126"/>
-      <c r="AL20" s="126"/>
-      <c r="AM20" s="116"/>
-      <c r="AN20" s="116"/>
-      <c r="AO20" s="127"/>
+      <c r="AD20" s="117"/>
+      <c r="AE20" s="117"/>
+      <c r="AF20" s="107"/>
+      <c r="AG20" s="107"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="122"/>
+      <c r="AJ20" s="123"/>
+      <c r="AK20" s="117"/>
+      <c r="AL20" s="117"/>
+      <c r="AM20" s="107"/>
+      <c r="AN20" s="107"/>
+      <c r="AO20" s="118"/>
       <c r="AP20" s="59"/>
       <c r="AQ20" s="60"/>
       <c r="AR20" s="55"/>
@@ -3903,7 +3927,7 @@
       <c r="B21" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="150">
+      <c r="C21" s="141">
         <v>4</v>
       </c>
       <c r="D21" s="81">
@@ -3916,13 +3940,13 @@
       <c r="H21" s="60"/>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
-      <c r="K21" s="102"/>
+      <c r="K21" s="93"/>
       <c r="L21" s="57"/>
       <c r="M21" s="58"/>
       <c r="N21" s="59"/>
       <c r="O21" s="60"/>
       <c r="P21" s="55"/>
-      <c r="Q21" s="143"/>
+      <c r="Q21" s="134"/>
       <c r="R21" s="56"/>
       <c r="S21" s="57"/>
       <c r="T21" s="58"/>
@@ -3934,19 +3958,19 @@
       <c r="Z21" s="57"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="59"/>
-      <c r="AC21" s="145"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="126"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="131"/>
-      <c r="AJ21" s="132"/>
-      <c r="AK21" s="126"/>
-      <c r="AL21" s="126"/>
-      <c r="AM21" s="116"/>
-      <c r="AN21" s="116"/>
-      <c r="AO21" s="127"/>
+      <c r="AC21" s="136"/>
+      <c r="AD21" s="117"/>
+      <c r="AE21" s="117"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="118"/>
+      <c r="AI21" s="122"/>
+      <c r="AJ21" s="123"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="117"/>
+      <c r="AM21" s="107"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="118"/>
       <c r="AP21" s="59"/>
       <c r="AQ21" s="60"/>
       <c r="AR21" s="55"/>
@@ -3977,7 +4001,7 @@
         <v>23</v>
       </c>
       <c r="C22" s="49">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D22" s="81">
         <f t="shared" si="0"/>
@@ -3989,37 +4013,37 @@
       <c r="H22" s="60"/>
       <c r="I22" s="55"/>
       <c r="J22" s="55"/>
-      <c r="K22" s="102"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="57"/>
       <c r="M22" s="58"/>
       <c r="N22" s="59"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="100"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="135"/>
+      <c r="R22" s="91"/>
       <c r="S22" s="57"/>
       <c r="T22" s="58"/>
       <c r="U22" s="59"/>
       <c r="V22" s="60"/>
-      <c r="W22" s="105"/>
-      <c r="X22" s="103"/>
+      <c r="W22" s="96"/>
+      <c r="X22" s="94"/>
       <c r="Y22" s="56"/>
       <c r="Z22" s="57"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="59"/>
-      <c r="AC22" s="145"/>
-      <c r="AD22" s="126"/>
-      <c r="AE22" s="126"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="127"/>
-      <c r="AI22" s="131"/>
-      <c r="AJ22" s="132"/>
-      <c r="AK22" s="126"/>
-      <c r="AL22" s="126"/>
-      <c r="AM22" s="116"/>
-      <c r="AN22" s="116"/>
-      <c r="AO22" s="127"/>
+      <c r="AC22" s="136"/>
+      <c r="AD22" s="117"/>
+      <c r="AE22" s="117"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="118"/>
+      <c r="AI22" s="122"/>
+      <c r="AJ22" s="123"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="117"/>
+      <c r="AM22" s="107"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="118"/>
       <c r="AP22" s="59"/>
       <c r="AQ22" s="60"/>
       <c r="AR22" s="55"/>
@@ -4067,32 +4091,32 @@
       <c r="M23" s="58"/>
       <c r="N23" s="59"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="142"/>
-      <c r="R23" s="100"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="133"/>
+      <c r="R23" s="91"/>
       <c r="S23" s="57"/>
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
       <c r="V23" s="60"/>
       <c r="W23" s="83"/>
-      <c r="X23" s="104"/>
+      <c r="X23" s="95"/>
       <c r="Y23" s="56"/>
       <c r="Z23" s="57"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="59"/>
-      <c r="AC23" s="145"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="131"/>
-      <c r="AJ23" s="132"/>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="116"/>
-      <c r="AN23" s="116"/>
-      <c r="AO23" s="127"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="121"/>
+      <c r="AE23" s="121"/>
+      <c r="AF23" s="107"/>
+      <c r="AG23" s="107"/>
+      <c r="AH23" s="118"/>
+      <c r="AI23" s="122"/>
+      <c r="AJ23" s="123"/>
+      <c r="AK23" s="121"/>
+      <c r="AL23" s="121"/>
+      <c r="AM23" s="107"/>
+      <c r="AN23" s="107"/>
+      <c r="AO23" s="118"/>
       <c r="AP23" s="59"/>
       <c r="AQ23" s="60"/>
       <c r="AR23" s="61"/>
@@ -4141,31 +4165,31 @@
       <c r="N24" s="59"/>
       <c r="O24" s="60"/>
       <c r="P24" s="55"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="102"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="93"/>
       <c r="S24" s="57"/>
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="105"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="100"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="96"/>
+      <c r="X24" s="96"/>
+      <c r="Y24" s="91"/>
       <c r="Z24" s="57"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="59"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="126"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="131"/>
-      <c r="AJ24" s="132"/>
-      <c r="AK24" s="126"/>
-      <c r="AL24" s="126"/>
-      <c r="AM24" s="116"/>
-      <c r="AN24" s="116"/>
-      <c r="AO24" s="127"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="117"/>
+      <c r="AE24" s="117"/>
+      <c r="AF24" s="107"/>
+      <c r="AG24" s="107"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="122"/>
+      <c r="AJ24" s="123"/>
+      <c r="AK24" s="117"/>
+      <c r="AL24" s="117"/>
+      <c r="AM24" s="107"/>
+      <c r="AN24" s="107"/>
+      <c r="AO24" s="118"/>
       <c r="AP24" s="59"/>
       <c r="AQ24" s="60"/>
       <c r="AR24" s="55"/>
@@ -4195,7 +4219,7 @@
       <c r="B25" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="140">
         <v>7</v>
       </c>
       <c r="D25" s="81">
@@ -4215,30 +4239,30 @@
       <c r="O25" s="60"/>
       <c r="P25" s="55"/>
       <c r="Q25" s="55"/>
-      <c r="R25" s="102"/>
+      <c r="R25" s="93"/>
       <c r="S25" s="57"/>
       <c r="T25" s="58"/>
       <c r="U25" s="59"/>
       <c r="V25" s="60"/>
       <c r="W25" s="55"/>
       <c r="X25" s="55"/>
-      <c r="Y25" s="100"/>
+      <c r="Y25" s="91"/>
       <c r="Z25" s="57"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="59"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="131"/>
-      <c r="AJ25" s="132"/>
-      <c r="AK25" s="126"/>
-      <c r="AL25" s="126"/>
-      <c r="AM25" s="116"/>
-      <c r="AN25" s="116"/>
-      <c r="AO25" s="127"/>
+      <c r="AC25" s="136"/>
+      <c r="AD25" s="117"/>
+      <c r="AE25" s="117"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="122"/>
+      <c r="AJ25" s="123"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="117"/>
+      <c r="AM25" s="107"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="118"/>
       <c r="AP25" s="59"/>
       <c r="AQ25" s="60"/>
       <c r="AR25" s="55"/>
@@ -4293,25 +4317,25 @@
       <c r="T26" s="58"/>
       <c r="U26" s="59"/>
       <c r="V26" s="60"/>
-      <c r="W26" s="103"/>
+      <c r="W26" s="94"/>
       <c r="X26" s="55"/>
       <c r="Y26" s="56"/>
       <c r="Z26" s="57"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="59"/>
-      <c r="AC26" s="145"/>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="126"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="131"/>
-      <c r="AJ26" s="132"/>
-      <c r="AK26" s="126"/>
-      <c r="AL26" s="126"/>
-      <c r="AM26" s="116"/>
-      <c r="AN26" s="116"/>
-      <c r="AO26" s="127"/>
+      <c r="AC26" s="136"/>
+      <c r="AD26" s="123"/>
+      <c r="AE26" s="117"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="122"/>
+      <c r="AJ26" s="123"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="117"/>
+      <c r="AM26" s="107"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="118"/>
       <c r="AP26" s="59"/>
       <c r="AQ26" s="60"/>
       <c r="AR26" s="55"/>
@@ -4367,24 +4391,24 @@
       <c r="U27" s="59"/>
       <c r="V27" s="60"/>
       <c r="W27" s="55"/>
-      <c r="X27" s="103"/>
+      <c r="X27" s="94"/>
       <c r="Y27" s="56"/>
       <c r="Z27" s="57"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="59"/>
-      <c r="AC27" s="145"/>
-      <c r="AD27" s="126"/>
-      <c r="AE27" s="126"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="127"/>
-      <c r="AI27" s="131"/>
-      <c r="AJ27" s="132"/>
-      <c r="AK27" s="126"/>
-      <c r="AL27" s="126"/>
-      <c r="AM27" s="116"/>
-      <c r="AN27" s="116"/>
-      <c r="AO27" s="127"/>
+      <c r="AC27" s="136"/>
+      <c r="AD27" s="117"/>
+      <c r="AE27" s="117"/>
+      <c r="AF27" s="107"/>
+      <c r="AG27" s="107"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="122"/>
+      <c r="AJ27" s="123"/>
+      <c r="AK27" s="117"/>
+      <c r="AL27" s="117"/>
+      <c r="AM27" s="107"/>
+      <c r="AN27" s="107"/>
+      <c r="AO27" s="118"/>
       <c r="AP27" s="59"/>
       <c r="AQ27" s="60"/>
       <c r="AR27" s="55"/>
@@ -4441,23 +4465,23 @@
       <c r="V28" s="60"/>
       <c r="W28" s="55"/>
       <c r="X28" s="55"/>
-      <c r="Y28" s="102"/>
+      <c r="Y28" s="93"/>
       <c r="Z28" s="57"/>
       <c r="AA28" s="58"/>
       <c r="AB28" s="59"/>
-      <c r="AC28" s="145"/>
-      <c r="AD28" s="126"/>
-      <c r="AE28" s="126"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="127"/>
-      <c r="AI28" s="131"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="126"/>
-      <c r="AM28" s="116"/>
-      <c r="AN28" s="116"/>
-      <c r="AO28" s="127"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="117"/>
+      <c r="AE28" s="117"/>
+      <c r="AF28" s="107"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="118"/>
+      <c r="AI28" s="122"/>
+      <c r="AJ28" s="123"/>
+      <c r="AK28" s="117"/>
+      <c r="AL28" s="117"/>
+      <c r="AM28" s="107"/>
+      <c r="AN28" s="107"/>
+      <c r="AO28" s="118"/>
       <c r="AP28" s="59"/>
       <c r="AQ28" s="60"/>
       <c r="AR28" s="55"/>
@@ -4517,23 +4541,23 @@
       <c r="Y29" s="56"/>
       <c r="Z29" s="57"/>
       <c r="AA29" s="58"/>
-      <c r="AB29" s="146"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="126"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="140"/>
-      <c r="AJ29" s="141"/>
-      <c r="AK29" s="126"/>
-      <c r="AL29" s="126"/>
-      <c r="AM29" s="116"/>
-      <c r="AN29" s="116"/>
-      <c r="AO29" s="127"/>
+      <c r="AB29" s="137"/>
+      <c r="AC29" s="138"/>
+      <c r="AD29" s="117"/>
+      <c r="AE29" s="117"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="118"/>
+      <c r="AI29" s="131"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="117"/>
+      <c r="AM29" s="107"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="118"/>
       <c r="AP29" s="69"/>
       <c r="AQ29" s="70"/>
-      <c r="AR29" s="105"/>
+      <c r="AR29" s="96"/>
       <c r="AS29" s="55"/>
       <c r="AT29" s="56"/>
       <c r="AU29" s="57"/>
@@ -4586,20 +4610,20 @@
       <c r="Y30" s="56"/>
       <c r="Z30" s="57"/>
       <c r="AA30" s="58"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="126"/>
-      <c r="AE30" s="126"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="138"/>
-      <c r="AJ30" s="139"/>
-      <c r="AK30" s="126"/>
-      <c r="AL30" s="126"/>
-      <c r="AM30" s="116"/>
-      <c r="AN30" s="116"/>
-      <c r="AO30" s="127"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="99"/>
+      <c r="AD30" s="117"/>
+      <c r="AE30" s="117"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="118"/>
+      <c r="AI30" s="129"/>
+      <c r="AJ30" s="130"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="117"/>
+      <c r="AM30" s="107"/>
+      <c r="AN30" s="107"/>
+      <c r="AO30" s="118"/>
       <c r="AP30" s="67"/>
       <c r="AQ30" s="68"/>
       <c r="AR30" s="55"/>
@@ -4662,18 +4686,18 @@
       <c r="AA31" s="74"/>
       <c r="AB31" s="75"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="135"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="137"/>
-      <c r="AJ31" s="135"/>
-      <c r="AK31" s="135"/>
-      <c r="AL31" s="135"/>
-      <c r="AM31" s="136"/>
-      <c r="AN31" s="136"/>
-      <c r="AO31" s="125"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="128"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="126"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="127"/>
+      <c r="AO31" s="116"/>
       <c r="AP31" s="71"/>
       <c r="AQ31" s="72"/>
       <c r="AR31" s="72"/>
@@ -4716,42 +4740,42 @@
       <c r="H32" s="54"/>
       <c r="I32" s="55"/>
       <c r="J32" s="55"/>
-      <c r="K32" s="102"/>
+      <c r="K32" s="93"/>
       <c r="L32" s="57"/>
       <c r="M32" s="58"/>
       <c r="N32" s="53"/>
       <c r="O32" s="54"/>
       <c r="P32" s="55"/>
       <c r="Q32" s="55"/>
-      <c r="R32" s="102"/>
+      <c r="R32" s="93"/>
       <c r="S32" s="57"/>
       <c r="T32" s="58"/>
       <c r="U32" s="53"/>
       <c r="V32" s="54"/>
       <c r="W32" s="55"/>
       <c r="X32" s="55"/>
-      <c r="Y32" s="102"/>
+      <c r="Y32" s="93"/>
       <c r="Z32" s="57"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="53"/>
       <c r="AC32" s="54"/>
-      <c r="AD32" s="126"/>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="128"/>
-      <c r="AJ32" s="129"/>
-      <c r="AK32" s="126"/>
-      <c r="AL32" s="126"/>
-      <c r="AM32" s="116"/>
-      <c r="AN32" s="116"/>
-      <c r="AO32" s="127"/>
+      <c r="AD32" s="117"/>
+      <c r="AE32" s="117"/>
+      <c r="AF32" s="107"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="118"/>
+      <c r="AI32" s="119"/>
+      <c r="AJ32" s="120"/>
+      <c r="AK32" s="117"/>
+      <c r="AL32" s="117"/>
+      <c r="AM32" s="107"/>
+      <c r="AN32" s="107"/>
+      <c r="AO32" s="118"/>
       <c r="AP32" s="53"/>
       <c r="AQ32" s="54"/>
-      <c r="AR32" s="103"/>
-      <c r="AS32" s="103"/>
-      <c r="AT32" s="100"/>
+      <c r="AR32" s="94"/>
+      <c r="AS32" s="94"/>
+      <c r="AT32" s="91"/>
       <c r="AU32" s="57"/>
       <c r="AV32" s="58"/>
       <c r="AW32" s="53"/>
@@ -4789,42 +4813,42 @@
       <c r="H33" s="60"/>
       <c r="I33" s="55"/>
       <c r="J33" s="55"/>
-      <c r="K33" s="102"/>
+      <c r="K33" s="93"/>
       <c r="L33" s="57"/>
       <c r="M33" s="58"/>
       <c r="N33" s="59"/>
       <c r="O33" s="60"/>
       <c r="P33" s="55"/>
       <c r="Q33" s="55"/>
-      <c r="R33" s="102"/>
+      <c r="R33" s="93"/>
       <c r="S33" s="57"/>
       <c r="T33" s="58"/>
       <c r="U33" s="59"/>
       <c r="V33" s="60"/>
       <c r="W33" s="55"/>
       <c r="X33" s="55"/>
-      <c r="Y33" s="102"/>
+      <c r="Y33" s="93"/>
       <c r="Z33" s="57"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="59"/>
       <c r="AC33" s="60"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="126"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="131"/>
-      <c r="AJ33" s="132"/>
-      <c r="AK33" s="126"/>
-      <c r="AL33" s="126"/>
-      <c r="AM33" s="116"/>
-      <c r="AN33" s="116"/>
-      <c r="AO33" s="127"/>
+      <c r="AD33" s="117"/>
+      <c r="AE33" s="117"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="118"/>
+      <c r="AI33" s="122"/>
+      <c r="AJ33" s="123"/>
+      <c r="AK33" s="117"/>
+      <c r="AL33" s="117"/>
+      <c r="AM33" s="107"/>
+      <c r="AN33" s="107"/>
+      <c r="AO33" s="118"/>
       <c r="AP33" s="59"/>
       <c r="AQ33" s="60"/>
-      <c r="AR33" s="103"/>
-      <c r="AS33" s="103"/>
-      <c r="AT33" s="100"/>
+      <c r="AR33" s="94"/>
+      <c r="AS33" s="94"/>
+      <c r="AT33" s="91"/>
       <c r="AU33" s="57"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="59"/>
@@ -4862,42 +4886,42 @@
       <c r="H34" s="60"/>
       <c r="I34" s="55"/>
       <c r="J34" s="55"/>
-      <c r="K34" s="102"/>
+      <c r="K34" s="93"/>
       <c r="L34" s="57"/>
       <c r="M34" s="58"/>
       <c r="N34" s="59"/>
       <c r="O34" s="60"/>
       <c r="P34" s="55"/>
       <c r="Q34" s="55"/>
-      <c r="R34" s="102"/>
+      <c r="R34" s="93"/>
       <c r="S34" s="57"/>
       <c r="T34" s="58"/>
       <c r="U34" s="59"/>
       <c r="V34" s="60"/>
       <c r="W34" s="55"/>
       <c r="X34" s="55"/>
-      <c r="Y34" s="102"/>
+      <c r="Y34" s="93"/>
       <c r="Z34" s="57"/>
       <c r="AA34" s="58"/>
       <c r="AB34" s="59"/>
       <c r="AC34" s="60"/>
-      <c r="AD34" s="126"/>
-      <c r="AE34" s="126"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="127"/>
-      <c r="AI34" s="131"/>
-      <c r="AJ34" s="132"/>
-      <c r="AK34" s="126"/>
-      <c r="AL34" s="126"/>
-      <c r="AM34" s="116"/>
-      <c r="AN34" s="116"/>
-      <c r="AO34" s="127"/>
+      <c r="AD34" s="117"/>
+      <c r="AE34" s="117"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="118"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="123"/>
+      <c r="AK34" s="117"/>
+      <c r="AL34" s="117"/>
+      <c r="AM34" s="107"/>
+      <c r="AN34" s="107"/>
+      <c r="AO34" s="118"/>
       <c r="AP34" s="59"/>
       <c r="AQ34" s="60"/>
-      <c r="AR34" s="103"/>
-      <c r="AS34" s="103"/>
-      <c r="AT34" s="100"/>
+      <c r="AR34" s="94"/>
+      <c r="AS34" s="94"/>
+      <c r="AT34" s="91"/>
       <c r="AU34" s="57"/>
       <c r="AV34" s="58"/>
       <c r="AW34" s="59"/>
@@ -4950,18 +4974,18 @@
       <c r="AA35" s="58"/>
       <c r="AB35" s="67"/>
       <c r="AC35" s="68"/>
-      <c r="AD35" s="126"/>
-      <c r="AE35" s="126"/>
-      <c r="AF35" s="116"/>
-      <c r="AG35" s="116"/>
-      <c r="AH35" s="127"/>
-      <c r="AI35" s="138"/>
-      <c r="AJ35" s="139"/>
-      <c r="AK35" s="126"/>
-      <c r="AL35" s="126"/>
-      <c r="AM35" s="116"/>
-      <c r="AN35" s="116"/>
-      <c r="AO35" s="127"/>
+      <c r="AD35" s="117"/>
+      <c r="AE35" s="117"/>
+      <c r="AF35" s="107"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="118"/>
+      <c r="AI35" s="129"/>
+      <c r="AJ35" s="130"/>
+      <c r="AK35" s="117"/>
+      <c r="AL35" s="117"/>
+      <c r="AM35" s="107"/>
+      <c r="AN35" s="107"/>
+      <c r="AO35" s="118"/>
       <c r="AP35" s="67"/>
       <c r="AQ35" s="68"/>
       <c r="AR35" s="55"/>
@@ -4993,7 +5017,7 @@
       </c>
       <c r="C36" s="41">
         <f>SUM(C37:C38)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D36" s="42">
         <f>SUM(D37:D38)</f>
@@ -5024,18 +5048,18 @@
       <c r="AA36" s="74"/>
       <c r="AB36" s="75"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="135"/>
-      <c r="AE36" s="135"/>
-      <c r="AF36" s="136"/>
-      <c r="AG36" s="136"/>
-      <c r="AH36" s="125"/>
-      <c r="AI36" s="137"/>
-      <c r="AJ36" s="135"/>
-      <c r="AK36" s="135"/>
-      <c r="AL36" s="135"/>
-      <c r="AM36" s="136"/>
-      <c r="AN36" s="136"/>
-      <c r="AO36" s="125"/>
+      <c r="AD36" s="126"/>
+      <c r="AE36" s="126"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="127"/>
+      <c r="AH36" s="116"/>
+      <c r="AI36" s="128"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="126"/>
+      <c r="AL36" s="126"/>
+      <c r="AM36" s="127"/>
+      <c r="AN36" s="127"/>
+      <c r="AO36" s="116"/>
       <c r="AP36" s="71"/>
       <c r="AQ36" s="72"/>
       <c r="AR36" s="72"/>
@@ -5066,7 +5090,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" s="81">
         <f>SUM(G37:BJ37)</f>
@@ -5097,23 +5121,23 @@
       <c r="AA37" s="58"/>
       <c r="AB37" s="53"/>
       <c r="AC37" s="54"/>
-      <c r="AD37" s="126"/>
-      <c r="AE37" s="126"/>
-      <c r="AF37" s="116"/>
-      <c r="AG37" s="116"/>
-      <c r="AH37" s="127"/>
-      <c r="AI37" s="128"/>
-      <c r="AJ37" s="129"/>
-      <c r="AK37" s="126"/>
-      <c r="AL37" s="126"/>
-      <c r="AM37" s="116"/>
-      <c r="AN37" s="116"/>
-      <c r="AO37" s="127"/>
+      <c r="AD37" s="117"/>
+      <c r="AE37" s="117"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="118"/>
+      <c r="AI37" s="119"/>
+      <c r="AJ37" s="120"/>
+      <c r="AK37" s="117"/>
+      <c r="AL37" s="117"/>
+      <c r="AM37" s="107"/>
+      <c r="AN37" s="107"/>
+      <c r="AO37" s="118"/>
       <c r="AP37" s="53"/>
       <c r="AQ37" s="54"/>
       <c r="AR37" s="55"/>
       <c r="AS37" s="55"/>
-      <c r="AT37" s="102"/>
+      <c r="AT37" s="93"/>
       <c r="AU37" s="57"/>
       <c r="AV37" s="58"/>
       <c r="AW37" s="53"/>
@@ -5166,18 +5190,18 @@
       <c r="AA38" s="58"/>
       <c r="AB38" s="67"/>
       <c r="AC38" s="68"/>
-      <c r="AD38" s="126"/>
-      <c r="AE38" s="126"/>
-      <c r="AF38" s="116"/>
-      <c r="AG38" s="116"/>
-      <c r="AH38" s="127"/>
-      <c r="AI38" s="138"/>
-      <c r="AJ38" s="139"/>
-      <c r="AK38" s="126"/>
-      <c r="AL38" s="126"/>
-      <c r="AM38" s="116"/>
-      <c r="AN38" s="116"/>
-      <c r="AO38" s="127"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
+      <c r="AF38" s="107"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="118"/>
+      <c r="AI38" s="129"/>
+      <c r="AJ38" s="130"/>
+      <c r="AK38" s="117"/>
+      <c r="AL38" s="117"/>
+      <c r="AM38" s="107"/>
+      <c r="AN38" s="107"/>
+      <c r="AO38" s="118"/>
       <c r="AP38" s="67"/>
       <c r="AQ38" s="68"/>
       <c r="AR38" s="55"/>
@@ -5240,18 +5264,18 @@
       <c r="AA39" s="74"/>
       <c r="AB39" s="75"/>
       <c r="AC39" s="72"/>
-      <c r="AD39" s="135"/>
-      <c r="AE39" s="135"/>
-      <c r="AF39" s="136"/>
-      <c r="AG39" s="136"/>
-      <c r="AH39" s="125"/>
-      <c r="AI39" s="137"/>
-      <c r="AJ39" s="135"/>
-      <c r="AK39" s="135"/>
-      <c r="AL39" s="135"/>
-      <c r="AM39" s="136"/>
-      <c r="AN39" s="136"/>
-      <c r="AO39" s="125"/>
+      <c r="AD39" s="126"/>
+      <c r="AE39" s="126"/>
+      <c r="AF39" s="127"/>
+      <c r="AG39" s="127"/>
+      <c r="AH39" s="116"/>
+      <c r="AI39" s="128"/>
+      <c r="AJ39" s="126"/>
+      <c r="AK39" s="126"/>
+      <c r="AL39" s="126"/>
+      <c r="AM39" s="127"/>
+      <c r="AN39" s="127"/>
+      <c r="AO39" s="116"/>
       <c r="AP39" s="71"/>
       <c r="AQ39" s="72"/>
       <c r="AR39" s="72"/>
@@ -5313,23 +5337,23 @@
       <c r="AA40" s="58"/>
       <c r="AB40" s="53"/>
       <c r="AC40" s="54"/>
-      <c r="AD40" s="126"/>
-      <c r="AE40" s="126"/>
-      <c r="AF40" s="116"/>
-      <c r="AG40" s="116"/>
-      <c r="AH40" s="127"/>
-      <c r="AI40" s="128"/>
-      <c r="AJ40" s="129"/>
-      <c r="AK40" s="126"/>
-      <c r="AL40" s="126"/>
-      <c r="AM40" s="116"/>
-      <c r="AN40" s="116"/>
-      <c r="AO40" s="127"/>
+      <c r="AD40" s="117"/>
+      <c r="AE40" s="117"/>
+      <c r="AF40" s="107"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="118"/>
+      <c r="AI40" s="119"/>
+      <c r="AJ40" s="120"/>
+      <c r="AK40" s="117"/>
+      <c r="AL40" s="117"/>
+      <c r="AM40" s="107"/>
+      <c r="AN40" s="107"/>
+      <c r="AO40" s="118"/>
       <c r="AP40" s="53"/>
       <c r="AQ40" s="54"/>
       <c r="AR40" s="55"/>
-      <c r="AS40" s="103"/>
-      <c r="AT40" s="148"/>
+      <c r="AS40" s="94"/>
+      <c r="AT40" s="139"/>
       <c r="AU40" s="57"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="53"/>
@@ -5386,23 +5410,23 @@
       <c r="AA41" s="58"/>
       <c r="AB41" s="59"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="126"/>
-      <c r="AF41" s="116"/>
-      <c r="AG41" s="116"/>
-      <c r="AH41" s="127"/>
-      <c r="AI41" s="131"/>
-      <c r="AJ41" s="132"/>
-      <c r="AK41" s="126"/>
-      <c r="AL41" s="126"/>
-      <c r="AM41" s="116"/>
-      <c r="AN41" s="116"/>
-      <c r="AO41" s="127"/>
+      <c r="AD41" s="117"/>
+      <c r="AE41" s="117"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="118"/>
+      <c r="AI41" s="122"/>
+      <c r="AJ41" s="123"/>
+      <c r="AK41" s="117"/>
+      <c r="AL41" s="117"/>
+      <c r="AM41" s="107"/>
+      <c r="AN41" s="107"/>
+      <c r="AO41" s="118"/>
       <c r="AP41" s="59"/>
       <c r="AQ41" s="60"/>
       <c r="AR41" s="55"/>
-      <c r="AS41" s="103"/>
-      <c r="AT41" s="102"/>
+      <c r="AS41" s="94"/>
+      <c r="AT41" s="93"/>
       <c r="AU41" s="57"/>
       <c r="AV41" s="58"/>
       <c r="AW41" s="59"/>
@@ -5455,18 +5479,18 @@
       <c r="AA42" s="58"/>
       <c r="AB42" s="67"/>
       <c r="AC42" s="68"/>
-      <c r="AD42" s="126"/>
-      <c r="AE42" s="126"/>
-      <c r="AF42" s="116"/>
-      <c r="AG42" s="116"/>
-      <c r="AH42" s="127"/>
-      <c r="AI42" s="138"/>
-      <c r="AJ42" s="139"/>
-      <c r="AK42" s="126"/>
-      <c r="AL42" s="126"/>
-      <c r="AM42" s="116"/>
-      <c r="AN42" s="116"/>
-      <c r="AO42" s="127"/>
+      <c r="AD42" s="117"/>
+      <c r="AE42" s="117"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="118"/>
+      <c r="AI42" s="129"/>
+      <c r="AJ42" s="130"/>
+      <c r="AK42" s="117"/>
+      <c r="AL42" s="117"/>
+      <c r="AM42" s="107"/>
+      <c r="AN42" s="107"/>
+      <c r="AO42" s="118"/>
       <c r="AP42" s="67"/>
       <c r="AQ42" s="68"/>
       <c r="AR42" s="55"/>
@@ -5494,9 +5518,9 @@
       <c r="B43" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="37">
-        <f ca="1">C39+C36+C31+C18+C14+C9</f>
-        <v>2.5</v>
+      <c r="C43" s="37" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">SUM(C10:C13 + C15:C17 + C19:C30 + C32:C35 + C37:C38 + C40:C42)</f>
+        <v>0</v>
       </c>
       <c r="D43" s="37">
         <f>D39+D36+D31+D18+D14+D9</f>
@@ -5775,10 +5799,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="149" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="99"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="77" t="s">
         <v>14</v>
       </c>
@@ -5787,11 +5811,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="str">
+      <c r="A3" s="147" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="148"/>
       <c r="C3" s="78">
         <f ca="1">Zeitplanung!C9</f>
         <v>2.5</v>
@@ -5804,11 +5828,11 @@
       <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="str">
+      <c r="A4" s="147" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="97"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="78">
         <f>Zeitplanung!C14</f>
         <v>0.5</v>
@@ -5821,14 +5845,14 @@
       <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="str">
+      <c r="A5" s="147" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="97"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="78">
         <f>Zeitplanung!C18</f>
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
@@ -5838,11 +5862,11 @@
       <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="str">
+      <c r="A6" s="147" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="78">
         <f>Zeitplanung!C31</f>
         <v>11</v>
@@ -5854,14 +5878,14 @@
       <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="str">
+      <c r="A7" s="147" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="78">
         <f>Zeitplanung!C36</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" s="78">
         <f>Zeitplanung!D36</f>
@@ -5870,11 +5894,11 @@
       <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="str">
+      <c r="A8" s="147" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="78">
         <f>Zeitplanung!C39</f>
         <v>9</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4414D878-6FBE-CE4F-B04D-7E2298F34BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13877DFB-4B1D-4B48-A6B9-82945D42EF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -47,33 +47,14 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">1: must
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">2: should
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>3: nice to have</t>
+          <t>1: must
+2: should
+3: nice to have</t>
         </r>
       </text>
     </comment>
@@ -82,10 +63,9 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color rgb="FF000000"/>
+            <color indexed="81"/>
             <rFont val="Segoe UI"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Besprechung Anforderungsanalyse-Dokument (mit Urs/Kilian)
 </t>
@@ -96,28 +76,6 @@
 </comments>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="60">
   <si>
@@ -256,15 +214,12 @@
     <t>KW 52</t>
   </si>
   <si>
-    <t>KW 1</t>
-  </si>
-  <si>
-    <t>KW 2</t>
-  </si>
-  <si>
     <t>KW 3</t>
   </si>
   <si>
+    <t>KW 4</t>
+  </si>
+  <si>
     <t>Meilenstein</t>
   </si>
   <si>
@@ -295,7 +250,10 @@
     <t>Project Abstract erstellen</t>
   </si>
   <si>
-    <t>KW 53</t>
+    <t>KW53</t>
+  </si>
+  <si>
+    <t>KW1</t>
   </si>
   <si>
     <t>Aim.er</t>
@@ -305,7 +263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -345,6 +303,14 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -390,33 +356,19 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="25">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,51 +471,11 @@
     </fill>
     <fill>
       <patternFill patternType="gray125">
-        <bgColor rgb="FF00B050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <bgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1191,24 +1109,13 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,536 +1129,393 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="1" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="23" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="1" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1773,11 +1537,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFFF99"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFFFCCCC"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFFF9999"/>
+      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1860,13 +1624,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>11</c:v>
@@ -1940,7 +1704,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2447,8 +2211,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="166" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2463,7 +2227,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" ht="25" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="91" t="s">
         <v>59</v>
       </c>
       <c r="B1" s="3"/>
@@ -2766,106 +2530,106 @@
     </row>
     <row r="7" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="142" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="142"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="27" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="143" t="s">
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="144"/>
-      <c r="U7" s="143" t="s">
+      <c r="O7" s="106"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="106"/>
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="106" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="144"/>
-      <c r="AB7" s="145" t="s">
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="106"/>
+      <c r="Y7" s="106"/>
+      <c r="Z7" s="106"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="144"/>
-      <c r="AI7" s="143" t="s">
+      <c r="AC7" s="106"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="106"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="106"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="106"/>
+      <c r="AN7" s="106"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="143"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="144"/>
-      <c r="AP7" s="145" t="s">
+      <c r="AQ7" s="106"/>
+      <c r="AR7" s="106"/>
+      <c r="AS7" s="106"/>
+      <c r="AT7" s="106"/>
+      <c r="AU7" s="106"/>
+      <c r="AV7" s="107"/>
+      <c r="AW7" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="144"/>
-      <c r="AW7" s="143" t="s">
+      <c r="AX7" s="106"/>
+      <c r="AY7" s="106"/>
+      <c r="AZ7" s="106"/>
+      <c r="BA7" s="106"/>
+      <c r="BB7" s="106"/>
+      <c r="BC7" s="107"/>
+      <c r="BD7" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="AX7" s="143"/>
-      <c r="AY7" s="143"/>
-      <c r="AZ7" s="143"/>
-      <c r="BA7" s="143"/>
-      <c r="BB7" s="143"/>
-      <c r="BC7" s="144"/>
-      <c r="BD7" s="145" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE7" s="143"/>
-      <c r="BF7" s="143"/>
-      <c r="BG7" s="143"/>
-      <c r="BH7" s="143"/>
-      <c r="BI7" s="143"/>
-      <c r="BJ7" s="146"/>
+      <c r="BE7" s="106"/>
+      <c r="BF7" s="106"/>
+      <c r="BG7" s="106"/>
+      <c r="BH7" s="106"/>
+      <c r="BI7" s="106"/>
+      <c r="BJ7" s="109"/>
     </row>
     <row r="8" spans="1:62" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>48</v>
+      <c r="F8" s="33" t="s">
+        <v>47</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>16</v>
@@ -2936,40 +2700,40 @@
       <c r="AC8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="108" t="s">
+      <c r="AD8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AE8" s="109" t="s">
+      <c r="AE8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="109" t="s">
+      <c r="AF8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AG8" s="109" t="s">
+      <c r="AG8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AH8" s="110" t="s">
+      <c r="AH8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="AI8" s="111" t="s">
+      <c r="AI8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AJ8" s="108" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AK8" s="108" t="s">
+      <c r="AK8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AL8" s="109" t="s">
+      <c r="AL8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AM8" s="109" t="s">
+      <c r="AM8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="AN8" s="109" t="s">
+      <c r="AN8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="AO8" s="110" t="s">
+      <c r="AO8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="AP8" s="16" t="s">
@@ -3032,27 +2796,27 @@
       <c r="BI8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BJ8" s="25" t="s">
+      <c r="BJ8" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>10</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="41">
-        <f ca="1">SUM(C10:C13)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="42">
+      <c r="C9" s="40">
+        <f>SUM(C10:C13)</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
       <c r="G9" s="71"/>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
@@ -3072,22 +2836,22 @@
       <c r="W9" s="72"/>
       <c r="X9" s="72"/>
       <c r="Y9" s="72"/>
-      <c r="Z9" s="100"/>
-      <c r="AA9" s="101"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="112"/>
-      <c r="AE9" s="112"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="113"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="112"/>
-      <c r="AK9" s="112"/>
-      <c r="AL9" s="112"/>
-      <c r="AM9" s="113"/>
-      <c r="AN9" s="113"/>
-      <c r="AO9" s="116"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="74"/>
+      <c r="AI9" s="71"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="74"/>
       <c r="AP9" s="71"/>
       <c r="AQ9" s="72"/>
       <c r="AR9" s="72"/>
@@ -3114,320 +2878,319 @@
       <c r="A10" s="12">
         <v>101</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="47">
-        <f ca="1">C10-B5</f>
+      <c r="C10" s="46">
         <v>0</v>
       </c>
       <c r="D10" s="82"/>
-      <c r="E10" s="48">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
       <c r="F10" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="53"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
       <c r="J10" s="88"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="53"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="117"/>
-      <c r="AE10" s="117"/>
-      <c r="AF10" s="107"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="119"/>
-      <c r="AJ10" s="120"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="107"/>
-      <c r="AO10" s="118"/>
-      <c r="AP10" s="53"/>
-      <c r="AQ10" s="54"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="56"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="54"/>
-      <c r="AY10" s="55"/>
-      <c r="AZ10" s="55"/>
-      <c r="BA10" s="56"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="58"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="54"/>
-      <c r="BF10" s="55"/>
-      <c r="BG10" s="55"/>
-      <c r="BH10" s="56"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="58"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="52"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="55"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="55"/>
+      <c r="BB10" s="56"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="54"/>
+      <c r="BH10" s="55"/>
+      <c r="BI10" s="56"/>
+      <c r="BJ10" s="57"/>
     </row>
     <row r="11" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>102</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="81">
         <f>SUM(G11:BJ11)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <v>1</v>
       </c>
-      <c r="F11" s="51"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="83"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="58" t="s">
+      <c r="L11" s="61"/>
+      <c r="M11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="58" t="s">
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="U11" s="59"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="59"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="94"/>
       <c r="AC11" s="60"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="122"/>
-      <c r="AJ11" s="123"/>
-      <c r="AK11" s="121"/>
-      <c r="AL11" s="121"/>
-      <c r="AM11" s="107"/>
-      <c r="AN11" s="107"/>
-      <c r="AO11" s="118"/>
-      <c r="AP11" s="59"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="59"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="56"/>
-      <c r="BB11" s="57"/>
-      <c r="BC11" s="58"/>
-      <c r="BD11" s="59"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="56"/>
-      <c r="BI11" s="57"/>
-      <c r="BJ11" s="58"/>
+      <c r="AD11" s="59"/>
+      <c r="AE11" s="59"/>
+      <c r="AF11" s="59"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="59"/>
+      <c r="AK11" s="59"/>
+      <c r="AL11" s="59"/>
+      <c r="AM11" s="59"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="59"/>
+      <c r="AR11" s="60"/>
+      <c r="AS11" s="60"/>
+      <c r="AT11" s="55"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="58"/>
+      <c r="AX11" s="59"/>
+      <c r="AY11" s="60"/>
+      <c r="AZ11" s="60"/>
+      <c r="BA11" s="55"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="58"/>
+      <c r="BE11" s="59"/>
+      <c r="BF11" s="60"/>
+      <c r="BG11" s="60"/>
+      <c r="BH11" s="55"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="57"/>
     </row>
     <row r="12" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>103</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="49">
+      <c r="B12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="48">
         <v>1</v>
       </c>
       <c r="D12" s="81">
         <f>SUM(G12:BJ12)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="49">
         <v>1</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="60"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="91"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="92"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="121"/>
-      <c r="AE12" s="121"/>
-      <c r="AF12" s="107"/>
-      <c r="AG12" s="107"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="122"/>
-      <c r="AJ12" s="123"/>
-      <c r="AK12" s="121"/>
-      <c r="AL12" s="121"/>
-      <c r="AM12" s="107"/>
-      <c r="AN12" s="107"/>
-      <c r="AO12" s="118"/>
-      <c r="AP12" s="92"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="56"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="56"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="58"/>
-      <c r="BD12" s="59"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="58"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="99"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="59"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="59"/>
+      <c r="AL12" s="59"/>
+      <c r="AM12" s="59"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="104"/>
+      <c r="AQ12" s="59"/>
+      <c r="AR12" s="60"/>
+      <c r="AS12" s="60"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="58"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="60"/>
+      <c r="AZ12" s="60"/>
+      <c r="BA12" s="55"/>
+      <c r="BB12" s="56"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="58"/>
+      <c r="BE12" s="59"/>
+      <c r="BF12" s="60"/>
+      <c r="BG12" s="60"/>
+      <c r="BH12" s="60"/>
+      <c r="BI12" s="56"/>
+      <c r="BJ12" s="57"/>
     </row>
     <row r="13" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>104</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>51</v>
+      <c r="B13" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="D13" s="81"/>
-      <c r="E13" s="50">
+      <c r="E13" s="49">
         <v>1</v>
       </c>
       <c r="F13" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="63"/>
       <c r="M13" s="64"/>
-      <c r="N13" s="59"/>
-      <c r="O13" s="60"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
       <c r="S13" s="65"/>
       <c r="T13" s="66"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="55"/>
-      <c r="Y13" s="55"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
       <c r="Z13" s="65"/>
       <c r="AA13" s="66"/>
-      <c r="AB13" s="59"/>
+      <c r="AB13" s="94"/>
       <c r="AC13" s="60"/>
-      <c r="AD13" s="117"/>
-      <c r="AE13" s="117"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="124"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="122"/>
-      <c r="AJ13" s="123"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="117"/>
-      <c r="AN13" s="124"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="59"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="55"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="65"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="59"/>
+      <c r="AM13" s="59"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="58"/>
+      <c r="AQ13" s="59"/>
+      <c r="AR13" s="54"/>
       <c r="AS13" s="89"/>
       <c r="AT13" s="90"/>
       <c r="AU13" s="65"/>
       <c r="AV13" s="66"/>
-      <c r="AW13" s="59"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="55"/>
-      <c r="AZ13" s="55"/>
-      <c r="BA13" s="55"/>
+      <c r="AW13" s="58"/>
+      <c r="AX13" s="59"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
       <c r="BB13" s="65"/>
       <c r="BC13" s="66"/>
-      <c r="BD13" s="59"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="55"/>
-      <c r="BG13" s="55"/>
-      <c r="BH13" s="55"/>
+      <c r="BD13" s="58"/>
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
       <c r="BI13" s="65"/>
       <c r="BJ13" s="66"/>
     </row>
     <row r="14" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30">
+      <c r="A14" s="29">
         <v>20</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="40">
         <f>SUM(C15:C17)</f>
         <v>0.5</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="41">
         <f>SUM(D15:D17)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="71"/>
       <c r="H14" s="72"/>
       <c r="I14" s="72"/>
@@ -3450,19 +3213,19 @@
       <c r="Z14" s="73"/>
       <c r="AA14" s="74"/>
       <c r="AB14" s="75"/>
-      <c r="AC14" s="104"/>
-      <c r="AD14" s="126"/>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="127"/>
-      <c r="AG14" s="127"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="128"/>
-      <c r="AJ14" s="126"/>
-      <c r="AK14" s="126"/>
-      <c r="AL14" s="126"/>
-      <c r="AM14" s="127"/>
-      <c r="AN14" s="127"/>
-      <c r="AO14" s="116"/>
+      <c r="AC14" s="72"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="72"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="72"/>
+      <c r="AM14" s="73"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="74"/>
       <c r="AP14" s="71"/>
       <c r="AQ14" s="72"/>
       <c r="AR14" s="72"/>
@@ -3489,234 +3252,234 @@
       <c r="A15" s="12">
         <v>201</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="48">
         <v>0.5</v>
       </c>
       <c r="D15" s="81">
         <f>SUM(G15:BJ15)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="50"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+        <v>52</v>
+      </c>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="85"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="53"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="53"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="117"/>
-      <c r="AE15" s="117"/>
-      <c r="AF15" s="107"/>
-      <c r="AG15" s="107"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="119"/>
-      <c r="AJ15" s="120"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="107"/>
-      <c r="AN15" s="107"/>
-      <c r="AO15" s="118"/>
-      <c r="AP15" s="53"/>
-      <c r="AQ15" s="54"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="56"/>
-      <c r="AU15" s="57"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="53"/>
-      <c r="AX15" s="54"/>
-      <c r="AY15" s="55"/>
-      <c r="AZ15" s="55"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="57"/>
-      <c r="BC15" s="58"/>
-      <c r="BD15" s="53"/>
-      <c r="BE15" s="54"/>
-      <c r="BF15" s="55"/>
-      <c r="BG15" s="55"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="57"/>
-      <c r="BJ15" s="58"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="92"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AF15" s="53"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="53"/>
+      <c r="AK15" s="53"/>
+      <c r="AL15" s="53"/>
+      <c r="AM15" s="53"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="53"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="53"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="55"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="53"/>
+      <c r="BF15" s="54"/>
+      <c r="BG15" s="54"/>
+      <c r="BH15" s="55"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="57"/>
     </row>
     <row r="16" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <v>202</v>
       </c>
-      <c r="B16" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="49"/>
+      <c r="B16" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="48"/>
       <c r="D16" s="81">
         <f>SUM(G16:BJ16)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="59"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="94"/>
       <c r="AC16" s="60"/>
-      <c r="AD16" s="117"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="107"/>
-      <c r="AG16" s="107"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="122"/>
-      <c r="AJ16" s="123"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="107"/>
-      <c r="AN16" s="107"/>
-      <c r="AO16" s="118"/>
-      <c r="AP16" s="59"/>
-      <c r="AQ16" s="60"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="56"/>
-      <c r="AU16" s="57"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="60"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="55"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="57"/>
-      <c r="BC16" s="58"/>
-      <c r="BD16" s="59"/>
-      <c r="BE16" s="60"/>
-      <c r="BF16" s="55"/>
-      <c r="BG16" s="55"/>
-      <c r="BH16" s="56"/>
-      <c r="BI16" s="57"/>
-      <c r="BJ16" s="58"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="59"/>
+      <c r="AF16" s="59"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="58"/>
+      <c r="AJ16" s="59"/>
+      <c r="AK16" s="59"/>
+      <c r="AL16" s="59"/>
+      <c r="AM16" s="59"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="58"/>
+      <c r="AQ16" s="59"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="58"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="58"/>
+      <c r="BE16" s="59"/>
+      <c r="BF16" s="54"/>
+      <c r="BG16" s="54"/>
+      <c r="BH16" s="55"/>
+      <c r="BI16" s="56"/>
+      <c r="BJ16" s="57"/>
     </row>
     <row r="17" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <v>203</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="49"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="81">
         <f>SUM(G17:BJ17)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="67"/>
       <c r="H17" s="68"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="67"/>
       <c r="O17" s="68"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="58"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="57"/>
       <c r="U17" s="67"/>
       <c r="V17" s="68"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="129"/>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="107"/>
-      <c r="AN17" s="107"/>
-      <c r="AO17" s="118"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="59"/>
+      <c r="AF17" s="59"/>
+      <c r="AG17" s="56"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="59"/>
+      <c r="AL17" s="59"/>
+      <c r="AM17" s="59"/>
+      <c r="AN17" s="56"/>
+      <c r="AO17" s="57"/>
       <c r="AP17" s="67"/>
       <c r="AQ17" s="68"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="56"/>
-      <c r="AU17" s="57"/>
-      <c r="AV17" s="58"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="55"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="57"/>
       <c r="AW17" s="67"/>
       <c r="AX17" s="68"/>
-      <c r="AY17" s="55"/>
-      <c r="AZ17" s="55"/>
-      <c r="BA17" s="56"/>
-      <c r="BB17" s="57"/>
-      <c r="BC17" s="58"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="55"/>
+      <c r="BB17" s="56"/>
+      <c r="BC17" s="57"/>
       <c r="BD17" s="67"/>
       <c r="BE17" s="68"/>
-      <c r="BF17" s="55"/>
-      <c r="BG17" s="55"/>
-      <c r="BH17" s="56"/>
-      <c r="BI17" s="57"/>
-      <c r="BJ17" s="58"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="55"/>
+      <c r="BI17" s="56"/>
+      <c r="BJ17" s="57"/>
     </row>
     <row r="18" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30">
+      <c r="A18" s="29">
         <v>30</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="41">
-        <f>SUM(C21:C30)</f>
-        <v>63</v>
-      </c>
-      <c r="D18" s="42">
+      <c r="C18" s="40">
+        <f>SUM(C19:C30)</f>
+        <v>71</v>
+      </c>
+      <c r="D18" s="41">
         <f>SUM(D19:D30)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="31"/>
+        <v>16.5</v>
+      </c>
+      <c r="E18" s="31"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="71"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72"/>
@@ -3738,22 +3501,22 @@
       <c r="Y18" s="72"/>
       <c r="Z18" s="73"/>
       <c r="AA18" s="74"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="105"/>
-      <c r="AD18" s="126"/>
-      <c r="AE18" s="126"/>
-      <c r="AF18" s="127"/>
-      <c r="AG18" s="127"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="128"/>
-      <c r="AJ18" s="126"/>
-      <c r="AK18" s="126"/>
-      <c r="AL18" s="126"/>
-      <c r="AM18" s="127"/>
-      <c r="AN18" s="127"/>
-      <c r="AO18" s="116"/>
-      <c r="AP18" s="106"/>
-      <c r="AQ18" s="105"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="72"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="72"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="74"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="74"/>
+      <c r="AP18" s="71"/>
+      <c r="AQ18" s="72"/>
       <c r="AR18" s="72"/>
       <c r="AS18" s="72"/>
       <c r="AT18" s="73"/>
@@ -3778,891 +3541,907 @@
       <c r="A19" s="12">
         <v>301</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="140">
+      <c r="C19" s="48">
         <v>4</v>
       </c>
       <c r="D19" s="81">
         <f>SUM(G19:BJ19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="54"/>
-      <c r="AD19" s="117"/>
-      <c r="AE19" s="117"/>
-      <c r="AF19" s="107"/>
-      <c r="AG19" s="107"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="119"/>
-      <c r="AJ19" s="120"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="107"/>
-      <c r="AN19" s="107"/>
-      <c r="AO19" s="118"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="57"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="55"/>
-      <c r="AZ19" s="55"/>
-      <c r="BA19" s="56"/>
-      <c r="BB19" s="57"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="53"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="55"/>
-      <c r="BG19" s="55"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="57"/>
-      <c r="BJ19" s="58"/>
+        <v>4.5</v>
+      </c>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="98">
+        <v>4</v>
+      </c>
+      <c r="K19" s="55"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="56"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="52"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="53"/>
+      <c r="AM19" s="53"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="52"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="55"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="52"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="55"/>
+      <c r="BB19" s="56"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="52"/>
+      <c r="BE19" s="53"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="55"/>
+      <c r="BI19" s="56"/>
+      <c r="BJ19" s="57"/>
     </row>
     <row r="20" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>302</v>
       </c>
-      <c r="B20" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="141">
+      <c r="B20" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="48">
         <v>4</v>
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="93"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="93"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="94"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="92"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="62">
+        <v>1</v>
+      </c>
+      <c r="L20" s="56"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="98">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="99"/>
       <c r="AC20" s="60"/>
-      <c r="AD20" s="117"/>
-      <c r="AE20" s="117"/>
-      <c r="AF20" s="107"/>
-      <c r="AG20" s="107"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="122"/>
-      <c r="AJ20" s="123"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="107"/>
-      <c r="AN20" s="107"/>
-      <c r="AO20" s="118"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="60"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="56"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="59"/>
-      <c r="AX20" s="60"/>
-      <c r="AY20" s="55"/>
-      <c r="AZ20" s="55"/>
-      <c r="BA20" s="56"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="59"/>
-      <c r="BE20" s="60"/>
-      <c r="BF20" s="55"/>
-      <c r="BG20" s="55"/>
-      <c r="BH20" s="56"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="58"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="56"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="55"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="59"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="55"/>
+      <c r="BB20" s="56"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="59"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="55"/>
+      <c r="BI20" s="56"/>
+      <c r="BJ20" s="57"/>
     </row>
     <row r="21" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>303</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="141">
+      <c r="C21" s="48">
         <v>4</v>
       </c>
       <c r="D21" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="93"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="134"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="55"/>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="117"/>
-      <c r="AE21" s="117"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="122"/>
-      <c r="AJ21" s="123"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="107"/>
-      <c r="AN21" s="107"/>
-      <c r="AO21" s="118"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="60"/>
-      <c r="AR21" s="55"/>
-      <c r="AS21" s="55"/>
-      <c r="AT21" s="56"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="58"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="60"/>
-      <c r="AY21" s="55"/>
-      <c r="AZ21" s="55"/>
-      <c r="BA21" s="56"/>
-      <c r="BB21" s="57"/>
-      <c r="BC21" s="58"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="60"/>
-      <c r="BF21" s="55"/>
-      <c r="BG21" s="55"/>
-      <c r="BH21" s="56"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="49"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="62">
+        <v>2</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="100"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="58"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="56"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="58"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="58"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="55"/>
+      <c r="BB21" s="56"/>
+      <c r="BC21" s="57"/>
+      <c r="BD21" s="58"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="55"/>
+      <c r="BI21" s="56"/>
+      <c r="BJ21" s="57"/>
     </row>
     <row r="22" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>304</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="48">
         <v>4</v>
       </c>
       <c r="D22" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="94"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="94"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="117"/>
-      <c r="AE22" s="117"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="122"/>
-      <c r="AJ22" s="123"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="107"/>
-      <c r="AN22" s="107"/>
-      <c r="AO22" s="118"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="56"/>
-      <c r="AU22" s="57"/>
-      <c r="AV22" s="58"/>
-      <c r="AW22" s="59"/>
-      <c r="AX22" s="60"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="56"/>
-      <c r="BB22" s="57"/>
-      <c r="BC22" s="58"/>
-      <c r="BD22" s="59"/>
-      <c r="BE22" s="60"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="56"/>
-      <c r="BI22" s="57"/>
-      <c r="BJ22" s="58"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="62">
+        <v>2</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="98">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="57"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="103"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="97"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="58"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="58"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="58"/>
+      <c r="AX22" s="59"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="57"/>
+      <c r="BD22" s="58"/>
+      <c r="BE22" s="59"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="56"/>
+      <c r="BJ22" s="57"/>
     </row>
     <row r="23" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>305</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="48">
         <v>7</v>
       </c>
       <c r="D23" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="133"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="121"/>
-      <c r="AE23" s="121"/>
-      <c r="AF23" s="107"/>
-      <c r="AG23" s="107"/>
-      <c r="AH23" s="118"/>
-      <c r="AI23" s="122"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="121"/>
-      <c r="AL23" s="121"/>
-      <c r="AM23" s="107"/>
-      <c r="AN23" s="107"/>
-      <c r="AO23" s="118"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="60"/>
-      <c r="AR23" s="61"/>
-      <c r="AS23" s="61"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="58"/>
-      <c r="AW23" s="59"/>
-      <c r="AX23" s="60"/>
-      <c r="AY23" s="61"/>
-      <c r="AZ23" s="61"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="57"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="59"/>
-      <c r="BE23" s="60"/>
-      <c r="BF23" s="61"/>
-      <c r="BG23" s="61"/>
-      <c r="BH23" s="56"/>
-      <c r="BI23" s="57"/>
-      <c r="BJ23" s="58"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="100">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="60"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="60"/>
+      <c r="AS23" s="60"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="59"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="60"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="58"/>
+      <c r="BE23" s="59"/>
+      <c r="BF23" s="60"/>
+      <c r="BG23" s="60"/>
+      <c r="BH23" s="55"/>
+      <c r="BI23" s="56"/>
+      <c r="BJ23" s="57"/>
     </row>
     <row r="24" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>306</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="49">
+      <c r="C24" s="48">
         <v>9</v>
       </c>
       <c r="D24" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="91"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="139"/>
-      <c r="AD24" s="117"/>
-      <c r="AE24" s="117"/>
-      <c r="AF24" s="107"/>
-      <c r="AG24" s="107"/>
-      <c r="AH24" s="118"/>
-      <c r="AI24" s="122"/>
-      <c r="AJ24" s="123"/>
-      <c r="AK24" s="117"/>
-      <c r="AL24" s="117"/>
-      <c r="AM24" s="107"/>
-      <c r="AN24" s="107"/>
-      <c r="AO24" s="118"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="60"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="56"/>
-      <c r="AU24" s="57"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="59"/>
-      <c r="AX24" s="60"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BA24" s="56"/>
-      <c r="BB24" s="57"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="59"/>
-      <c r="BE24" s="60"/>
-      <c r="BF24" s="55"/>
-      <c r="BG24" s="55"/>
-      <c r="BH24" s="56"/>
-      <c r="BI24" s="57"/>
-      <c r="BJ24" s="58"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="100"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="56"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="54"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="56"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="59"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="54"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="56"/>
+      <c r="BC24" s="57"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="59"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="54"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="56"/>
+      <c r="BJ24" s="57"/>
     </row>
     <row r="25" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>307</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="48">
         <v>7</v>
       </c>
       <c r="D25" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="55"/>
-      <c r="X25" s="55"/>
-      <c r="Y25" s="91"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="122"/>
-      <c r="AJ25" s="123"/>
-      <c r="AK25" s="117"/>
-      <c r="AL25" s="117"/>
-      <c r="AM25" s="107"/>
-      <c r="AN25" s="107"/>
-      <c r="AO25" s="118"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="60"/>
-      <c r="AR25" s="55"/>
-      <c r="AS25" s="55"/>
-      <c r="AT25" s="56"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="58"/>
-      <c r="AW25" s="59"/>
-      <c r="AX25" s="60"/>
-      <c r="AY25" s="55"/>
-      <c r="AZ25" s="55"/>
-      <c r="BA25" s="56"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="58"/>
-      <c r="BD25" s="59"/>
-      <c r="BE25" s="60"/>
-      <c r="BF25" s="55"/>
-      <c r="BG25" s="55"/>
-      <c r="BH25" s="56"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="58"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="94"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="97"/>
+      <c r="AG25" s="56"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="58"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="58"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="54"/>
+      <c r="AS25" s="54"/>
+      <c r="AT25" s="55"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="58"/>
+      <c r="AX25" s="59"/>
+      <c r="AY25" s="54"/>
+      <c r="AZ25" s="54"/>
+      <c r="BA25" s="55"/>
+      <c r="BB25" s="56"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="58"/>
+      <c r="BE25" s="59"/>
+      <c r="BF25" s="54"/>
+      <c r="BG25" s="54"/>
+      <c r="BH25" s="55"/>
+      <c r="BI25" s="56"/>
+      <c r="BJ25" s="57"/>
     </row>
     <row r="26" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>308</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="49">
+      <c r="C26" s="48">
         <v>8</v>
       </c>
       <c r="D26" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="94"/>
-      <c r="X26" s="55"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="136"/>
-      <c r="AD26" s="123"/>
-      <c r="AE26" s="117"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="118"/>
-      <c r="AI26" s="122"/>
-      <c r="AJ26" s="123"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="107"/>
-      <c r="AN26" s="107"/>
-      <c r="AO26" s="118"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="60"/>
-      <c r="AR26" s="55"/>
-      <c r="AS26" s="55"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="57"/>
-      <c r="AV26" s="58"/>
-      <c r="AW26" s="59"/>
-      <c r="AX26" s="60"/>
-      <c r="AY26" s="55"/>
-      <c r="AZ26" s="55"/>
-      <c r="BA26" s="56"/>
-      <c r="BB26" s="57"/>
-      <c r="BC26" s="58"/>
-      <c r="BD26" s="59"/>
-      <c r="BE26" s="60"/>
-      <c r="BF26" s="55"/>
-      <c r="BG26" s="55"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="57"/>
-      <c r="BJ26" s="58"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="94"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="56"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="58"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="56"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="58"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="55"/>
+      <c r="AU26" s="56"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="58"/>
+      <c r="AX26" s="59"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="55"/>
+      <c r="BB26" s="56"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="59"/>
+      <c r="BF26" s="54"/>
+      <c r="BG26" s="54"/>
+      <c r="BH26" s="55"/>
+      <c r="BI26" s="56"/>
+      <c r="BJ26" s="57"/>
     </row>
     <row r="27" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>309</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="48">
         <v>8</v>
       </c>
       <c r="D27" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="55"/>
-      <c r="X27" s="94"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="136"/>
-      <c r="AD27" s="117"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="107"/>
-      <c r="AG27" s="107"/>
-      <c r="AH27" s="118"/>
-      <c r="AI27" s="122"/>
-      <c r="AJ27" s="123"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="107"/>
-      <c r="AN27" s="107"/>
-      <c r="AO27" s="118"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="55"/>
-      <c r="AS27" s="55"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="57"/>
-      <c r="AV27" s="58"/>
-      <c r="AW27" s="59"/>
-      <c r="AX27" s="60"/>
-      <c r="AY27" s="55"/>
-      <c r="AZ27" s="55"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="57"/>
-      <c r="BC27" s="58"/>
-      <c r="BD27" s="59"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="55"/>
-      <c r="BG27" s="55"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="57"/>
-      <c r="BJ27" s="58"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="54"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="94"/>
+      <c r="AC27" s="100"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="58"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="58"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="58"/>
+      <c r="AX27" s="59"/>
+      <c r="AY27" s="54"/>
+      <c r="AZ27" s="54"/>
+      <c r="BA27" s="55"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="59"/>
+      <c r="BF27" s="54"/>
+      <c r="BG27" s="54"/>
+      <c r="BH27" s="55"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="57"/>
     </row>
     <row r="28" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>310</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="49">
+      <c r="C28" s="48">
         <v>7</v>
       </c>
       <c r="D28" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="117"/>
-      <c r="AE28" s="117"/>
-      <c r="AF28" s="107"/>
-      <c r="AG28" s="107"/>
-      <c r="AH28" s="118"/>
-      <c r="AI28" s="122"/>
-      <c r="AJ28" s="123"/>
-      <c r="AK28" s="117"/>
-      <c r="AL28" s="117"/>
-      <c r="AM28" s="107"/>
-      <c r="AN28" s="107"/>
-      <c r="AO28" s="118"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="60"/>
-      <c r="AR28" s="55"/>
-      <c r="AS28" s="55"/>
-      <c r="AT28" s="56"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="58"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="60"/>
-      <c r="AY28" s="55"/>
-      <c r="AZ28" s="55"/>
-      <c r="BA28" s="56"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="58"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="60"/>
-      <c r="BF28" s="55"/>
-      <c r="BG28" s="55"/>
-      <c r="BH28" s="56"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="58"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="94"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="97"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="58"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="58"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="54"/>
+      <c r="AS28" s="54"/>
+      <c r="AT28" s="55"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="58"/>
+      <c r="AX28" s="59"/>
+      <c r="AY28" s="54"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="55"/>
+      <c r="BB28" s="56"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="54"/>
+      <c r="BG28" s="54"/>
+      <c r="BH28" s="55"/>
+      <c r="BI28" s="56"/>
+      <c r="BJ28" s="57"/>
     </row>
     <row r="29" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>311</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="48">
         <v>9</v>
       </c>
       <c r="D29" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="69"/>
       <c r="H29" s="70"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
       <c r="N29" s="69"/>
       <c r="O29" s="70"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="58"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57"/>
       <c r="U29" s="69"/>
       <c r="V29" s="70"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="55"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="137"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="117"/>
-      <c r="AE29" s="117"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="118"/>
-      <c r="AI29" s="131"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="117"/>
-      <c r="AL29" s="117"/>
-      <c r="AM29" s="107"/>
-      <c r="AN29" s="107"/>
-      <c r="AO29" s="118"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="101"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="56"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="69"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="57"/>
       <c r="AP29" s="69"/>
       <c r="AQ29" s="70"/>
-      <c r="AR29" s="96"/>
-      <c r="AS29" s="55"/>
-      <c r="AT29" s="56"/>
-      <c r="AU29" s="57"/>
-      <c r="AV29" s="58"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="55"/>
+      <c r="AU29" s="56"/>
+      <c r="AV29" s="57"/>
       <c r="AW29" s="69"/>
       <c r="AX29" s="70"/>
-      <c r="AY29" s="55"/>
-      <c r="AZ29" s="55"/>
-      <c r="BA29" s="56"/>
-      <c r="BB29" s="57"/>
-      <c r="BC29" s="58"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="54"/>
+      <c r="BA29" s="55"/>
+      <c r="BB29" s="56"/>
+      <c r="BC29" s="57"/>
       <c r="BD29" s="69"/>
       <c r="BE29" s="70"/>
-      <c r="BF29" s="55"/>
-      <c r="BG29" s="55"/>
-      <c r="BH29" s="56"/>
-      <c r="BI29" s="57"/>
-      <c r="BJ29" s="58"/>
+      <c r="BF29" s="54"/>
+      <c r="BG29" s="54"/>
+      <c r="BH29" s="55"/>
+      <c r="BI29" s="56"/>
+      <c r="BJ29" s="57"/>
     </row>
     <row r="30" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>312</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="49"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="67"/>
       <c r="H30" s="68"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="58"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="57"/>
       <c r="N30" s="67"/>
       <c r="O30" s="68"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="58"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="57"/>
       <c r="U30" s="67"/>
       <c r="V30" s="68"/>
-      <c r="W30" s="55"/>
-      <c r="X30" s="55"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="99"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="117"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="118"/>
-      <c r="AI30" s="129"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="117"/>
-      <c r="AL30" s="117"/>
-      <c r="AM30" s="107"/>
-      <c r="AN30" s="107"/>
-      <c r="AO30" s="118"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="57"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="96"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="56"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="67"/>
+      <c r="AJ30" s="68"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="57"/>
       <c r="AP30" s="67"/>
       <c r="AQ30" s="68"/>
-      <c r="AR30" s="55"/>
-      <c r="AS30" s="55"/>
-      <c r="AT30" s="56"/>
-      <c r="AU30" s="57"/>
-      <c r="AV30" s="58"/>
+      <c r="AR30" s="54"/>
+      <c r="AS30" s="54"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="56"/>
+      <c r="AV30" s="57"/>
       <c r="AW30" s="67"/>
       <c r="AX30" s="68"/>
-      <c r="AY30" s="55"/>
-      <c r="AZ30" s="55"/>
-      <c r="BA30" s="56"/>
-      <c r="BB30" s="57"/>
-      <c r="BC30" s="58"/>
+      <c r="AY30" s="54"/>
+      <c r="AZ30" s="54"/>
+      <c r="BA30" s="55"/>
+      <c r="BB30" s="56"/>
+      <c r="BC30" s="57"/>
       <c r="BD30" s="67"/>
       <c r="BE30" s="68"/>
-      <c r="BF30" s="55"/>
-      <c r="BG30" s="55"/>
-      <c r="BH30" s="56"/>
-      <c r="BI30" s="57"/>
-      <c r="BJ30" s="58"/>
+      <c r="BF30" s="54"/>
+      <c r="BG30" s="54"/>
+      <c r="BH30" s="55"/>
+      <c r="BI30" s="56"/>
+      <c r="BJ30" s="57"/>
     </row>
     <row r="31" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30">
+      <c r="A31" s="29">
         <v>40</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="40">
         <f>SUM(C32:C35)</f>
         <v>11</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="41">
         <f>SUM(D32:D35)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="30"/>
       <c r="G31" s="71"/>
       <c r="H31" s="72"/>
       <c r="I31" s="72"/>
@@ -4686,18 +4465,18 @@
       <c r="AA31" s="74"/>
       <c r="AB31" s="75"/>
       <c r="AC31" s="72"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="128"/>
-      <c r="AJ31" s="126"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="126"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="127"/>
-      <c r="AO31" s="116"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="72"/>
+      <c r="AF31" s="72"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="74"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="73"/>
+      <c r="AN31" s="73"/>
+      <c r="AO31" s="74"/>
       <c r="AP31" s="71"/>
       <c r="AQ31" s="72"/>
       <c r="AR31" s="72"/>
@@ -4724,307 +4503,307 @@
       <c r="A32" s="12">
         <v>401</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="49">
+      <c r="C32" s="48">
         <v>2</v>
       </c>
       <c r="D32" s="81">
         <f>SUM(G32:BJ32)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="53"/>
-      <c r="V32" s="54"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="53"/>
-      <c r="AC32" s="54"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="117"/>
-      <c r="AF32" s="107"/>
-      <c r="AG32" s="107"/>
-      <c r="AH32" s="118"/>
-      <c r="AI32" s="119"/>
-      <c r="AJ32" s="120"/>
-      <c r="AK32" s="117"/>
-      <c r="AL32" s="117"/>
-      <c r="AM32" s="107"/>
-      <c r="AN32" s="107"/>
-      <c r="AO32" s="118"/>
-      <c r="AP32" s="53"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="94"/>
-      <c r="AS32" s="94"/>
-      <c r="AT32" s="91"/>
-      <c r="AU32" s="57"/>
-      <c r="AV32" s="58"/>
-      <c r="AW32" s="53"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="55"/>
-      <c r="AZ32" s="55"/>
-      <c r="BA32" s="56"/>
-      <c r="BB32" s="57"/>
-      <c r="BC32" s="58"/>
-      <c r="BD32" s="53"/>
-      <c r="BE32" s="54"/>
-      <c r="BF32" s="55"/>
-      <c r="BG32" s="55"/>
-      <c r="BH32" s="56"/>
-      <c r="BI32" s="57"/>
-      <c r="BJ32" s="58"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="53"/>
+      <c r="W32" s="54"/>
+      <c r="X32" s="54"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="57"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="53"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="56"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="52"/>
+      <c r="AJ32" s="53"/>
+      <c r="AK32" s="53"/>
+      <c r="AL32" s="53"/>
+      <c r="AM32" s="53"/>
+      <c r="AN32" s="56"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="52"/>
+      <c r="AQ32" s="53"/>
+      <c r="AR32" s="98"/>
+      <c r="AS32" s="98"/>
+      <c r="AT32" s="55"/>
+      <c r="AU32" s="56"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="52"/>
+      <c r="AX32" s="53"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="55"/>
+      <c r="BB32" s="56"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="52"/>
+      <c r="BE32" s="53"/>
+      <c r="BF32" s="54"/>
+      <c r="BG32" s="54"/>
+      <c r="BH32" s="55"/>
+      <c r="BI32" s="56"/>
+      <c r="BJ32" s="57"/>
     </row>
     <row r="33" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>402</v>
       </c>
-      <c r="B33" s="46" t="s">
+      <c r="B33" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="49">
+      <c r="C33" s="48">
         <v>5</v>
       </c>
       <c r="D33" s="81">
         <f t="shared" ref="D33:D35" si="1">SUM(G33:BJ33)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="55"/>
-      <c r="X33" s="55"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="59"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="94"/>
       <c r="AC33" s="60"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="117"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="118"/>
-      <c r="AI33" s="122"/>
-      <c r="AJ33" s="123"/>
-      <c r="AK33" s="117"/>
-      <c r="AL33" s="117"/>
-      <c r="AM33" s="107"/>
-      <c r="AN33" s="107"/>
-      <c r="AO33" s="118"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="60"/>
-      <c r="AR33" s="94"/>
-      <c r="AS33" s="94"/>
-      <c r="AT33" s="91"/>
-      <c r="AU33" s="57"/>
-      <c r="AV33" s="58"/>
-      <c r="AW33" s="59"/>
-      <c r="AX33" s="60"/>
-      <c r="AY33" s="55"/>
-      <c r="AZ33" s="55"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="57"/>
-      <c r="BC33" s="58"/>
-      <c r="BD33" s="59"/>
-      <c r="BE33" s="60"/>
-      <c r="BF33" s="55"/>
-      <c r="BG33" s="55"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="57"/>
-      <c r="BJ33" s="58"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="58"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="58"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="98"/>
+      <c r="AS33" s="98"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="56"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="58"/>
+      <c r="AX33" s="59"/>
+      <c r="AY33" s="54"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="55"/>
+      <c r="BB33" s="56"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="58"/>
+      <c r="BE33" s="59"/>
+      <c r="BF33" s="54"/>
+      <c r="BG33" s="54"/>
+      <c r="BH33" s="55"/>
+      <c r="BI33" s="56"/>
+      <c r="BJ33" s="57"/>
     </row>
     <row r="34" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>403</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="B34" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="49">
+      <c r="C34" s="48">
         <v>4</v>
       </c>
       <c r="D34" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="59"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="94"/>
       <c r="AC34" s="60"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="117"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="122"/>
-      <c r="AJ34" s="123"/>
-      <c r="AK34" s="117"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="107"/>
-      <c r="AN34" s="107"/>
-      <c r="AO34" s="118"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="60"/>
-      <c r="AR34" s="94"/>
-      <c r="AS34" s="94"/>
-      <c r="AT34" s="91"/>
-      <c r="AU34" s="57"/>
-      <c r="AV34" s="58"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="60"/>
-      <c r="AY34" s="55"/>
-      <c r="AZ34" s="55"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="57"/>
-      <c r="BC34" s="58"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="60"/>
-      <c r="BF34" s="55"/>
-      <c r="BG34" s="55"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="57"/>
-      <c r="BJ34" s="58"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="58"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="58"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="98"/>
+      <c r="AS34" s="98"/>
+      <c r="AT34" s="55"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="58"/>
+      <c r="AX34" s="59"/>
+      <c r="AY34" s="54"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="55"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="58"/>
+      <c r="BE34" s="59"/>
+      <c r="BF34" s="54"/>
+      <c r="BG34" s="54"/>
+      <c r="BH34" s="55"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="57"/>
     </row>
     <row r="35" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>404</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="48"/>
       <c r="D35" s="81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="51"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="67"/>
       <c r="H35" s="68"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="58"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="57"/>
       <c r="N35" s="67"/>
       <c r="O35" s="68"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="58"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="57"/>
       <c r="U35" s="67"/>
       <c r="V35" s="68"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="117"/>
-      <c r="AF35" s="107"/>
-      <c r="AG35" s="107"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="129"/>
-      <c r="AJ35" s="130"/>
-      <c r="AK35" s="117"/>
-      <c r="AL35" s="117"/>
-      <c r="AM35" s="107"/>
-      <c r="AN35" s="107"/>
-      <c r="AO35" s="118"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="57"/>
+      <c r="AB35" s="95"/>
+      <c r="AC35" s="96"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="56"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="67"/>
+      <c r="AJ35" s="68"/>
+      <c r="AK35" s="68"/>
+      <c r="AL35" s="68"/>
+      <c r="AM35" s="68"/>
+      <c r="AN35" s="56"/>
+      <c r="AO35" s="57"/>
       <c r="AP35" s="67"/>
       <c r="AQ35" s="68"/>
-      <c r="AR35" s="55"/>
-      <c r="AS35" s="55"/>
-      <c r="AT35" s="56"/>
-      <c r="AU35" s="57"/>
-      <c r="AV35" s="58"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="55"/>
+      <c r="AU35" s="56"/>
+      <c r="AV35" s="57"/>
       <c r="AW35" s="67"/>
       <c r="AX35" s="68"/>
-      <c r="AY35" s="55"/>
-      <c r="AZ35" s="55"/>
-      <c r="BA35" s="56"/>
-      <c r="BB35" s="57"/>
-      <c r="BC35" s="58"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="55"/>
+      <c r="BB35" s="56"/>
+      <c r="BC35" s="57"/>
       <c r="BD35" s="67"/>
       <c r="BE35" s="68"/>
-      <c r="BF35" s="55"/>
-      <c r="BG35" s="55"/>
-      <c r="BH35" s="56"/>
-      <c r="BI35" s="57"/>
-      <c r="BJ35" s="58"/>
+      <c r="BF35" s="54"/>
+      <c r="BG35" s="54"/>
+      <c r="BH35" s="55"/>
+      <c r="BI35" s="56"/>
+      <c r="BJ35" s="57"/>
     </row>
     <row r="36" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
+      <c r="A36" s="29">
         <v>50</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="40">
         <f>SUM(C37:C38)</f>
         <v>4</v>
       </c>
-      <c r="D36" s="42">
+      <c r="D36" s="41">
         <f>SUM(D37:D38)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="32"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="30"/>
       <c r="G36" s="71"/>
       <c r="H36" s="72"/>
       <c r="I36" s="72"/>
@@ -5048,18 +4827,18 @@
       <c r="AA36" s="74"/>
       <c r="AB36" s="75"/>
       <c r="AC36" s="72"/>
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="126"/>
-      <c r="AF36" s="127"/>
-      <c r="AG36" s="127"/>
-      <c r="AH36" s="116"/>
-      <c r="AI36" s="128"/>
-      <c r="AJ36" s="126"/>
-      <c r="AK36" s="126"/>
-      <c r="AL36" s="126"/>
-      <c r="AM36" s="127"/>
-      <c r="AN36" s="127"/>
-      <c r="AO36" s="116"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="72"/>
+      <c r="AM36" s="73"/>
+      <c r="AN36" s="73"/>
+      <c r="AO36" s="74"/>
       <c r="AP36" s="71"/>
       <c r="AQ36" s="72"/>
       <c r="AR36" s="72"/>
@@ -5086,161 +4865,161 @@
       <c r="A37" s="12">
         <v>501</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="48">
         <v>4</v>
       </c>
       <c r="D37" s="81">
         <f>SUM(G37:BJ37)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="54"/>
-      <c r="W37" s="55"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="53"/>
-      <c r="AC37" s="54"/>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="117"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="118"/>
-      <c r="AI37" s="119"/>
-      <c r="AJ37" s="120"/>
-      <c r="AK37" s="117"/>
-      <c r="AL37" s="117"/>
-      <c r="AM37" s="107"/>
-      <c r="AN37" s="107"/>
-      <c r="AO37" s="118"/>
-      <c r="AP37" s="53"/>
-      <c r="AQ37" s="54"/>
-      <c r="AR37" s="55"/>
-      <c r="AS37" s="55"/>
-      <c r="AT37" s="93"/>
-      <c r="AU37" s="57"/>
-      <c r="AV37" s="58"/>
-      <c r="AW37" s="53"/>
-      <c r="AX37" s="54"/>
-      <c r="AY37" s="55"/>
-      <c r="AZ37" s="55"/>
-      <c r="BA37" s="56"/>
-      <c r="BB37" s="57"/>
-      <c r="BC37" s="58"/>
-      <c r="BD37" s="53"/>
-      <c r="BE37" s="54"/>
-      <c r="BF37" s="55"/>
-      <c r="BG37" s="55"/>
-      <c r="BH37" s="56"/>
-      <c r="BI37" s="57"/>
-      <c r="BJ37" s="58"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="56"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="55"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="92"/>
+      <c r="AC37" s="93"/>
+      <c r="AD37" s="53"/>
+      <c r="AE37" s="53"/>
+      <c r="AF37" s="53"/>
+      <c r="AG37" s="56"/>
+      <c r="AH37" s="57"/>
+      <c r="AI37" s="52"/>
+      <c r="AJ37" s="53"/>
+      <c r="AK37" s="53"/>
+      <c r="AL37" s="53"/>
+      <c r="AM37" s="53"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="52"/>
+      <c r="AQ37" s="53"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="54"/>
+      <c r="AT37" s="62"/>
+      <c r="AU37" s="56"/>
+      <c r="AV37" s="57"/>
+      <c r="AW37" s="52"/>
+      <c r="AX37" s="53"/>
+      <c r="AY37" s="54"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="55"/>
+      <c r="BB37" s="56"/>
+      <c r="BC37" s="57"/>
+      <c r="BD37" s="52"/>
+      <c r="BE37" s="53"/>
+      <c r="BF37" s="54"/>
+      <c r="BG37" s="54"/>
+      <c r="BH37" s="55"/>
+      <c r="BI37" s="56"/>
+      <c r="BJ37" s="57"/>
     </row>
     <row r="38" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>502</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="49"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="48"/>
       <c r="D38" s="81">
         <f>SUM(G38:BJ38)</f>
         <v>0</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="67"/>
       <c r="H38" s="68"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="56"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="58"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="57"/>
       <c r="N38" s="67"/>
       <c r="O38" s="68"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="58"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="57"/>
       <c r="U38" s="67"/>
       <c r="V38" s="68"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="117"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="118"/>
-      <c r="AI38" s="129"/>
-      <c r="AJ38" s="130"/>
-      <c r="AK38" s="117"/>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="107"/>
-      <c r="AN38" s="107"/>
-      <c r="AO38" s="118"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="95"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="56"/>
+      <c r="AH38" s="57"/>
+      <c r="AI38" s="67"/>
+      <c r="AJ38" s="68"/>
+      <c r="AK38" s="68"/>
+      <c r="AL38" s="68"/>
+      <c r="AM38" s="68"/>
+      <c r="AN38" s="56"/>
+      <c r="AO38" s="57"/>
       <c r="AP38" s="67"/>
       <c r="AQ38" s="68"/>
-      <c r="AR38" s="55"/>
-      <c r="AS38" s="55"/>
-      <c r="AT38" s="56"/>
-      <c r="AU38" s="57"/>
-      <c r="AV38" s="58"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="54"/>
+      <c r="AT38" s="55"/>
+      <c r="AU38" s="56"/>
+      <c r="AV38" s="57"/>
       <c r="AW38" s="67"/>
       <c r="AX38" s="68"/>
-      <c r="AY38" s="55"/>
-      <c r="AZ38" s="55"/>
-      <c r="BA38" s="56"/>
-      <c r="BB38" s="57"/>
-      <c r="BC38" s="58"/>
+      <c r="AY38" s="54"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="55"/>
+      <c r="BB38" s="56"/>
+      <c r="BC38" s="57"/>
       <c r="BD38" s="67"/>
       <c r="BE38" s="68"/>
-      <c r="BF38" s="55"/>
-      <c r="BG38" s="55"/>
-      <c r="BH38" s="56"/>
-      <c r="BI38" s="57"/>
-      <c r="BJ38" s="58"/>
+      <c r="BF38" s="54"/>
+      <c r="BG38" s="54"/>
+      <c r="BH38" s="55"/>
+      <c r="BI38" s="56"/>
+      <c r="BJ38" s="57"/>
     </row>
     <row r="39" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30">
+      <c r="A39" s="29">
         <v>60</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="40">
         <f>SUM(C40:C42)</f>
         <v>9</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="41">
         <f>SUM(D40:D42)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="71"/>
       <c r="H39" s="72"/>
       <c r="I39" s="72"/>
@@ -5264,18 +5043,18 @@
       <c r="AA39" s="74"/>
       <c r="AB39" s="75"/>
       <c r="AC39" s="72"/>
-      <c r="AD39" s="126"/>
-      <c r="AE39" s="126"/>
-      <c r="AF39" s="127"/>
-      <c r="AG39" s="127"/>
-      <c r="AH39" s="116"/>
-      <c r="AI39" s="128"/>
-      <c r="AJ39" s="126"/>
-      <c r="AK39" s="126"/>
-      <c r="AL39" s="126"/>
-      <c r="AM39" s="127"/>
-      <c r="AN39" s="127"/>
-      <c r="AO39" s="116"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="74"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="73"/>
+      <c r="AN39" s="73"/>
+      <c r="AO39" s="74"/>
       <c r="AP39" s="71"/>
       <c r="AQ39" s="72"/>
       <c r="AR39" s="72"/>
@@ -5302,453 +5081,453 @@
       <c r="A40" s="12">
         <v>601</v>
       </c>
-      <c r="B40" s="46" t="s">
+      <c r="B40" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="49">
+      <c r="C40" s="48">
         <v>5</v>
       </c>
       <c r="D40" s="81">
         <f>SUM(G40:BJ40)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="53"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="54"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="54"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="53"/>
-      <c r="AC40" s="54"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="117"/>
-      <c r="AF40" s="107"/>
-      <c r="AG40" s="107"/>
-      <c r="AH40" s="118"/>
-      <c r="AI40" s="119"/>
-      <c r="AJ40" s="120"/>
-      <c r="AK40" s="117"/>
-      <c r="AL40" s="117"/>
-      <c r="AM40" s="107"/>
-      <c r="AN40" s="107"/>
-      <c r="AO40" s="118"/>
-      <c r="AP40" s="53"/>
-      <c r="AQ40" s="54"/>
-      <c r="AR40" s="55"/>
-      <c r="AS40" s="94"/>
-      <c r="AT40" s="139"/>
-      <c r="AU40" s="57"/>
-      <c r="AV40" s="58"/>
-      <c r="AW40" s="53"/>
-      <c r="AX40" s="54"/>
-      <c r="AY40" s="55"/>
-      <c r="AZ40" s="55"/>
-      <c r="BA40" s="56"/>
-      <c r="BB40" s="57"/>
-      <c r="BC40" s="58"/>
-      <c r="BD40" s="53"/>
-      <c r="BE40" s="54"/>
-      <c r="BF40" s="55"/>
-      <c r="BG40" s="55"/>
-      <c r="BH40" s="56"/>
-      <c r="BI40" s="57"/>
-      <c r="BJ40" s="58"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="56"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="52"/>
+      <c r="V40" s="53"/>
+      <c r="W40" s="54"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="56"/>
+      <c r="AA40" s="57"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="93"/>
+      <c r="AD40" s="53"/>
+      <c r="AE40" s="53"/>
+      <c r="AF40" s="53"/>
+      <c r="AG40" s="56"/>
+      <c r="AH40" s="57"/>
+      <c r="AI40" s="52"/>
+      <c r="AJ40" s="53"/>
+      <c r="AK40" s="53"/>
+      <c r="AL40" s="53"/>
+      <c r="AM40" s="53"/>
+      <c r="AN40" s="56"/>
+      <c r="AO40" s="57"/>
+      <c r="AP40" s="52"/>
+      <c r="AQ40" s="53"/>
+      <c r="AR40" s="54"/>
+      <c r="AS40" s="98"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="56"/>
+      <c r="AV40" s="57"/>
+      <c r="AW40" s="52"/>
+      <c r="AX40" s="53"/>
+      <c r="AY40" s="54"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="55"/>
+      <c r="BB40" s="56"/>
+      <c r="BC40" s="57"/>
+      <c r="BD40" s="52"/>
+      <c r="BE40" s="53"/>
+      <c r="BF40" s="54"/>
+      <c r="BG40" s="54"/>
+      <c r="BH40" s="55"/>
+      <c r="BI40" s="56"/>
+      <c r="BJ40" s="57"/>
     </row>
     <row r="41" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>602</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="49">
+      <c r="B41" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="48">
         <v>4</v>
       </c>
       <c r="D41" s="81">
         <f t="shared" ref="D41:D42" si="2">SUM(G41:BJ41)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="58"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="59"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="57"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="56"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="55"/>
+      <c r="Z41" s="56"/>
+      <c r="AA41" s="57"/>
+      <c r="AB41" s="94"/>
       <c r="AC41" s="60"/>
-      <c r="AD41" s="117"/>
-      <c r="AE41" s="117"/>
-      <c r="AF41" s="107"/>
-      <c r="AG41" s="107"/>
-      <c r="AH41" s="118"/>
-      <c r="AI41" s="122"/>
-      <c r="AJ41" s="123"/>
-      <c r="AK41" s="117"/>
-      <c r="AL41" s="117"/>
-      <c r="AM41" s="107"/>
-      <c r="AN41" s="107"/>
-      <c r="AO41" s="118"/>
-      <c r="AP41" s="59"/>
-      <c r="AQ41" s="60"/>
-      <c r="AR41" s="55"/>
-      <c r="AS41" s="94"/>
-      <c r="AT41" s="93"/>
-      <c r="AU41" s="57"/>
-      <c r="AV41" s="58"/>
-      <c r="AW41" s="59"/>
-      <c r="AX41" s="60"/>
-      <c r="AY41" s="55"/>
-      <c r="AZ41" s="55"/>
-      <c r="BA41" s="56"/>
-      <c r="BB41" s="57"/>
-      <c r="BC41" s="58"/>
-      <c r="BD41" s="59"/>
-      <c r="BE41" s="60"/>
-      <c r="BF41" s="55"/>
-      <c r="BG41" s="55"/>
-      <c r="BH41" s="56"/>
-      <c r="BI41" s="57"/>
-      <c r="BJ41" s="58"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="56"/>
+      <c r="AH41" s="57"/>
+      <c r="AI41" s="58"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="56"/>
+      <c r="AO41" s="57"/>
+      <c r="AP41" s="58"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="98"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="56"/>
+      <c r="AV41" s="57"/>
+      <c r="AW41" s="58"/>
+      <c r="AX41" s="59"/>
+      <c r="AY41" s="54"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="55"/>
+      <c r="BB41" s="56"/>
+      <c r="BC41" s="57"/>
+      <c r="BD41" s="58"/>
+      <c r="BE41" s="59"/>
+      <c r="BF41" s="54"/>
+      <c r="BG41" s="54"/>
+      <c r="BH41" s="55"/>
+      <c r="BI41" s="56"/>
+      <c r="BJ41" s="57"/>
     </row>
     <row r="42" spans="1:62" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>603</v>
       </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="48"/>
       <c r="D42" s="81">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="51"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="67"/>
       <c r="H42" s="68"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="58"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="57"/>
       <c r="N42" s="67"/>
       <c r="O42" s="68"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="58"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="57"/>
       <c r="U42" s="67"/>
       <c r="V42" s="68"/>
-      <c r="W42" s="55"/>
-      <c r="X42" s="55"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="117"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="118"/>
-      <c r="AI42" s="129"/>
-      <c r="AJ42" s="130"/>
-      <c r="AK42" s="117"/>
-      <c r="AL42" s="117"/>
-      <c r="AM42" s="107"/>
-      <c r="AN42" s="107"/>
-      <c r="AO42" s="118"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="55"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="56"/>
+      <c r="AH42" s="57"/>
+      <c r="AI42" s="67"/>
+      <c r="AJ42" s="68"/>
+      <c r="AK42" s="68"/>
+      <c r="AL42" s="68"/>
+      <c r="AM42" s="68"/>
+      <c r="AN42" s="56"/>
+      <c r="AO42" s="57"/>
       <c r="AP42" s="67"/>
       <c r="AQ42" s="68"/>
-      <c r="AR42" s="55"/>
-      <c r="AS42" s="55"/>
-      <c r="AT42" s="56"/>
-      <c r="AU42" s="57"/>
-      <c r="AV42" s="58"/>
+      <c r="AR42" s="54"/>
+      <c r="AS42" s="54"/>
+      <c r="AT42" s="55"/>
+      <c r="AU42" s="56"/>
+      <c r="AV42" s="57"/>
       <c r="AW42" s="67"/>
       <c r="AX42" s="68"/>
-      <c r="AY42" s="55"/>
-      <c r="AZ42" s="55"/>
-      <c r="BA42" s="56"/>
-      <c r="BB42" s="57"/>
-      <c r="BC42" s="58"/>
+      <c r="AY42" s="54"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="55"/>
+      <c r="BB42" s="56"/>
+      <c r="BC42" s="57"/>
       <c r="BD42" s="67"/>
       <c r="BE42" s="68"/>
-      <c r="BF42" s="55"/>
-      <c r="BG42" s="55"/>
-      <c r="BH42" s="56"/>
-      <c r="BI42" s="57"/>
-      <c r="BJ42" s="58"/>
+      <c r="BF42" s="54"/>
+      <c r="BG42" s="54"/>
+      <c r="BH42" s="55"/>
+      <c r="BI42" s="56"/>
+      <c r="BJ42" s="57"/>
     </row>
     <row r="43" spans="1:62" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36" t="s">
+      <c r="A43" s="34"/>
+      <c r="B43" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="37" cm="1">
-        <f t="array" aca="1" ref="C43" ca="1">SUM(C10:C13 + C15:C17 + C19:C30 + C32:C35 + C37:C38 + C40:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="37">
+      <c r="C43" s="36">
+        <f>C39+C36+C31+C18+C14+C9</f>
+        <v>96.5</v>
+      </c>
+      <c r="D43" s="36">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39">
+        <v>16.5</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="38">
         <f>SUM(G9:G42)</f>
         <v>0</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="38">
         <f t="shared" ref="H43:AL43" si="3">SUM(H9:H42)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="39">
+        <v>4</v>
+      </c>
+      <c r="K43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="39">
+        <v>5</v>
+      </c>
+      <c r="L43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N43" s="39">
+      <c r="N43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O43" s="39">
+      <c r="O43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P43" s="39">
+      <c r="P43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="Q43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R43" s="39">
+      <c r="R43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S43" s="39">
+      <c r="S43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T43" s="39">
+      <c r="T43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U43" s="39">
+      <c r="U43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V43" s="39">
+      <c r="V43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W43" s="39">
+      <c r="W43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X43" s="39">
+      <c r="X43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="39">
+      <c r="Y43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="39">
+      <c r="Z43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="39">
+      <c r="AA43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="39">
+      <c r="AB43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="39">
+      <c r="AC43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="39">
+      <c r="AD43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="39">
+      <c r="AE43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="39">
+      <c r="AF43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG43" s="39">
+      <c r="AG43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="39">
+      <c r="AH43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="39">
+      <c r="AI43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AJ43" s="39">
+      <c r="AJ43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="39">
+      <c r="AK43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL43" s="39">
+      <c r="AL43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM43" s="39">
+      <c r="AM43" s="38">
         <f t="shared" ref="AM43:BD43" si="4">SUM(AM9:AM42)</f>
         <v>0</v>
       </c>
-      <c r="AN43" s="39">
+      <c r="AN43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AO43" s="39">
+      <c r="AO43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AP43" s="39">
+      <c r="AP43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AQ43" s="39">
+      <c r="AQ43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AR43" s="39">
+      <c r="AR43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AS43" s="39">
+      <c r="AS43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AT43" s="39">
+      <c r="AT43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AU43" s="39">
+      <c r="AU43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AV43" s="39">
+      <c r="AV43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AW43" s="39">
+      <c r="AW43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AX43" s="39">
+      <c r="AX43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AY43" s="39">
+      <c r="AY43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="39">
+      <c r="AZ43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BA43" s="39">
+      <c r="BA43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BB43" s="39">
+      <c r="BB43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BC43" s="39">
+      <c r="BC43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BD43" s="39">
+      <c r="BD43" s="38">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BE43" s="39">
+      <c r="BE43" s="38">
         <f t="shared" ref="BE43:BJ43" si="5">SUM(BE9:BE42)</f>
         <v>0</v>
       </c>
-      <c r="BF43" s="39">
+      <c r="BF43" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BG43" s="39">
+      <c r="BG43" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BH43" s="39">
+      <c r="BH43" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BI43" s="39">
+      <c r="BI43" s="38">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="BJ43" s="40">
+      <c r="BJ43" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5799,10 +5578,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="77" t="s">
         <v>14</v>
       </c>
@@ -5811,14 +5590,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="str">
+      <c r="A3" s="110" t="str">
         <f>Zeitplanung!B9</f>
         <v>Administration, Planung</v>
       </c>
-      <c r="B3" s="148"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="78">
-        <f ca="1">Zeitplanung!C9</f>
-        <v>2.5</v>
+        <f>Zeitplanung!C9</f>
+        <v>1</v>
       </c>
       <c r="D3" s="78">
         <f>Zeitplanung!D9</f>
@@ -5828,11 +5607,11 @@
       <c r="F3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="147" t="str">
+      <c r="A4" s="110" t="str">
         <f>Zeitplanung!B14</f>
         <v>Analyse &amp; Design</v>
       </c>
-      <c r="B4" s="148"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="78">
         <f>Zeitplanung!C14</f>
         <v>0.5</v>
@@ -5845,28 +5624,28 @@
       <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="147" t="str">
+      <c r="A5" s="110" t="str">
         <f>Zeitplanung!B18</f>
         <v>Implementation</v>
       </c>
-      <c r="B5" s="148"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="78">
         <f>Zeitplanung!C18</f>
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>
     </row>
     <row r="6" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="147" t="str">
+      <c r="A6" s="110" t="str">
         <f>Zeitplanung!B31</f>
         <v>Testen</v>
       </c>
-      <c r="B6" s="148"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="78">
         <f>Zeitplanung!C31</f>
         <v>11</v>
@@ -5878,11 +5657,11 @@
       <c r="F6" s="79"/>
     </row>
     <row r="7" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147" t="str">
+      <c r="A7" s="110" t="str">
         <f>Zeitplanung!B36</f>
         <v>Diverses</v>
       </c>
-      <c r="B7" s="148"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="78">
         <f>Zeitplanung!C36</f>
         <v>4</v>
@@ -5894,11 +5673,11 @@
       <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="str">
+      <c r="A8" s="110" t="str">
         <f>Zeitplanung!B39</f>
         <v>Abschluss</v>
       </c>
-      <c r="B8" s="148"/>
+      <c r="B8" s="111"/>
       <c r="C8" s="78">
         <f>Zeitplanung!C39</f>
         <v>9</v>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13877DFB-4B1D-4B48-A6B9-82945D42EF44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9015E9-E508-D742-BCF5-5ADB1AA0C473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1704,7 +1704,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.5</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2211,8 +2211,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D30)</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3635,7 +3635,7 @@
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
       <c r="K20" s="62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
@@ -5303,7 +5303,7 @@
       </c>
       <c r="D43" s="36">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="K43" s="38">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L43" s="38">
         <f t="shared" si="3"/>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9015E9-E508-D742-BCF5-5ADB1AA0C473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E460D1-4F97-EA49-B4E4-D0DC62E41A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplanung" sheetId="1" r:id="rId1"/>
@@ -47,14 +47,33 @@
           <rPr>
             <b/>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
-          <t>1: must
-2: should
-3: nice to have</t>
+          <t xml:space="preserve">1: must
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2: should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>3: nice to have</t>
         </r>
       </text>
     </comment>
@@ -303,14 +322,6 @@
       <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -365,6 +376,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1129,393 +1147,393 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyFill="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="33" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="40" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="26" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="46" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="47" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="1" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="1" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="39" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,13 +1716,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.5</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2211,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2813,7 +2831,7 @@
       </c>
       <c r="D9" s="41">
         <f>SUM(D10:D13)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="30"/>
@@ -3037,7 +3055,7 @@
       </c>
       <c r="D12" s="81">
         <f>SUM(G12:BJ12)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="49">
         <v>1</v>
@@ -3050,7 +3068,9 @@
       <c r="K12" s="55"/>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
-      <c r="N12" s="104"/>
+      <c r="N12" s="104">
+        <v>0.25</v>
+      </c>
       <c r="O12" s="59"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
@@ -3476,7 +3496,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D30)</f>
-        <v>18.5</v>
+        <v>25.5</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3626,7 +3646,7 @@
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3635,16 +3655,18 @@
       <c r="I20" s="54"/>
       <c r="J20" s="54"/>
       <c r="K20" s="62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" s="56"/>
       <c r="M20" s="57"/>
       <c r="N20" s="58"/>
       <c r="O20" s="59"/>
       <c r="P20" s="98">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="98"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="98">
+        <v>1</v>
+      </c>
       <c r="R20" s="62"/>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
@@ -3703,7 +3725,7 @@
       </c>
       <c r="D21" s="81">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="51"/>
@@ -3712,7 +3734,7 @@
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
       <c r="K21" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" s="56"/>
       <c r="M21" s="57"/>
@@ -3778,7 +3800,7 @@
       </c>
       <c r="D22" s="81">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="50"/>
@@ -3787,7 +3809,7 @@
       <c r="I22" s="54"/>
       <c r="J22" s="54"/>
       <c r="K22" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="57"/>
@@ -3930,7 +3952,7 @@
       </c>
       <c r="D24" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -3944,7 +3966,9 @@
       <c r="N24" s="58"/>
       <c r="O24" s="59"/>
       <c r="P24" s="54"/>
-      <c r="Q24" s="98"/>
+      <c r="Q24" s="98">
+        <v>7</v>
+      </c>
       <c r="R24" s="62"/>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
@@ -5303,7 +5327,7 @@
       </c>
       <c r="D43" s="36">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>18.5</v>
+        <v>25.75</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
@@ -5337,7 +5361,7 @@
       </c>
       <c r="N43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O43" s="38">
         <f t="shared" si="3"/>
@@ -5345,11 +5369,11 @@
       </c>
       <c r="P43" s="38">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R43" s="38">
         <f t="shared" si="3"/>
@@ -5601,7 +5625,7 @@
       </c>
       <c r="D3" s="78">
         <f>Zeitplanung!D9</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="80"/>
       <c r="F3" s="79"/>
@@ -5635,7 +5659,7 @@
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
-        <v>18.5</v>
+        <v>25.5</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E460D1-4F97-EA49-B4E4-D0DC62E41A59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A870C-87EA-6C4E-8EBF-5D625718F843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2229,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D30)</f>
-        <v>25.5</v>
+        <v>33</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3667,7 +3667,9 @@
       <c r="Q20" s="98">
         <v>1</v>
       </c>
-      <c r="R20" s="62"/>
+      <c r="R20" s="62">
+        <v>0.5</v>
+      </c>
       <c r="S20" s="56"/>
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
@@ -3952,7 +3954,7 @@
       </c>
       <c r="D24" s="81">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
@@ -3969,7 +3971,9 @@
       <c r="Q24" s="98">
         <v>7</v>
       </c>
-      <c r="R24" s="62"/>
+      <c r="R24" s="62">
+        <v>6</v>
+      </c>
       <c r="S24" s="56"/>
       <c r="T24" s="57"/>
       <c r="U24" s="58"/>
@@ -4027,7 +4031,7 @@
       </c>
       <c r="D25" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4042,7 +4046,9 @@
       <c r="O25" s="59"/>
       <c r="P25" s="54"/>
       <c r="Q25" s="54"/>
-      <c r="R25" s="62"/>
+      <c r="R25" s="62">
+        <v>1</v>
+      </c>
       <c r="S25" s="56"/>
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
@@ -5327,7 +5333,7 @@
       </c>
       <c r="D43" s="36">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>25.75</v>
+        <v>33.25</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
@@ -5377,7 +5383,7 @@
       </c>
       <c r="R43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="S43" s="38">
         <f t="shared" si="3"/>
@@ -5659,7 +5665,7 @@
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
-        <v>25.5</v>
+        <v>33</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227A870C-87EA-6C4E-8EBF-5D625718F843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAED6BD-80EF-8647-90D7-32D2402D5345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1722,7 +1722,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>46.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2229,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="D18" s="41">
         <f>SUM(D19:D30)</f>
-        <v>33</v>
+        <v>46.2</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="30"/>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="D20" s="81">
         <f t="shared" ref="D20:D30" si="0">SUM(G20:BJ20)</f>
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="E20" s="49"/>
       <c r="F20" s="50"/>
@@ -3674,8 +3674,12 @@
       <c r="T20" s="57"/>
       <c r="U20" s="58"/>
       <c r="V20" s="59"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
+      <c r="W20" s="98">
+        <v>0</v>
+      </c>
+      <c r="X20" s="98">
+        <v>0.2</v>
+      </c>
       <c r="Y20" s="62"/>
       <c r="Z20" s="56"/>
       <c r="AA20" s="57"/>
@@ -3827,7 +3831,9 @@
       <c r="U22" s="58"/>
       <c r="V22" s="59"/>
       <c r="W22" s="54"/>
-      <c r="X22" s="98"/>
+      <c r="X22" s="98">
+        <v>0</v>
+      </c>
       <c r="Y22" s="55"/>
       <c r="Z22" s="56"/>
       <c r="AA22" s="57"/>
@@ -3902,7 +3908,9 @@
       <c r="U23" s="58"/>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
-      <c r="X23" s="100"/>
+      <c r="X23" s="100">
+        <v>0</v>
+      </c>
       <c r="Y23" s="55"/>
       <c r="Z23" s="56"/>
       <c r="AA23" s="57"/>
@@ -4031,7 +4039,7 @@
       </c>
       <c r="D25" s="81">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E25" s="49"/>
       <c r="F25" s="50"/>
@@ -4053,7 +4061,9 @@
       <c r="T25" s="57"/>
       <c r="U25" s="58"/>
       <c r="V25" s="59"/>
-      <c r="W25" s="54"/>
+      <c r="W25" s="54">
+        <v>5</v>
+      </c>
       <c r="X25" s="54"/>
       <c r="Y25" s="55"/>
       <c r="Z25" s="56"/>
@@ -4106,7 +4116,7 @@
       </c>
       <c r="D26" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E26" s="49"/>
       <c r="F26" s="50"/>
@@ -4126,8 +4136,12 @@
       <c r="T26" s="57"/>
       <c r="U26" s="58"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="54"/>
+      <c r="W26" s="98">
+        <v>1</v>
+      </c>
+      <c r="X26" s="54">
+        <v>2</v>
+      </c>
       <c r="Y26" s="55"/>
       <c r="Z26" s="56"/>
       <c r="AA26" s="57"/>
@@ -4179,7 +4193,7 @@
       </c>
       <c r="D27" s="81">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27" s="49"/>
       <c r="F27" s="50"/>
@@ -4200,7 +4214,9 @@
       <c r="U27" s="58"/>
       <c r="V27" s="59"/>
       <c r="W27" s="54"/>
-      <c r="X27" s="98"/>
+      <c r="X27" s="98">
+        <v>5</v>
+      </c>
       <c r="Y27" s="55"/>
       <c r="Z27" s="56"/>
       <c r="AA27" s="57"/>
@@ -5333,7 +5349,7 @@
       </c>
       <c r="D43" s="36">
         <f>D39+D36+D31+D18+D14+D9</f>
-        <v>33.25</v>
+        <v>46.45</v>
       </c>
       <c r="E43" s="36"/>
       <c r="F43" s="37"/>
@@ -5403,11 +5419,11 @@
       </c>
       <c r="W43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X43" s="38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Y43" s="38">
         <f t="shared" si="3"/>
@@ -5665,7 +5681,7 @@
       </c>
       <c r="D5" s="78">
         <f>Zeitplanung!D18</f>
-        <v>33</v>
+        <v>46.2</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="79"/>

--- a/doc/Zeitplanung.xlsx
+++ b/doc/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noahbuchs/Documents/Aim.er/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAED6BD-80EF-8647-90D7-32D2402D5345}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED8133-BFDC-1B45-86D2-F354CBDAE6E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" tabRatio="597" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2229,8 +2229,8 @@
   </sheetPr>
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="182" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
